--- a/fdx_financial_analysis.xlsx
+++ b/fdx_financial_analysis.xlsx
@@ -8,24 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/putanyn/Documents/Job_Project/FIN-Financial-Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B368E457-5991-454F-8B94-AE00EA0103A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED1BC2B-3DE6-5946-B300-94CADC062983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Income Yearly" sheetId="1" r:id="rId1"/>
-    <sheet name="Balance Sheet Yearly" sheetId="3" r:id="rId2"/>
-    <sheet name="Cash Flow Yearly" sheetId="5" r:id="rId3"/>
-    <sheet name="Yearly Ratios" sheetId="8" r:id="rId4"/>
-    <sheet name="Common Size Income Statement" sheetId="11" r:id="rId5"/>
-    <sheet name="Common Size Balance Sheet" sheetId="12" r:id="rId6"/>
-    <sheet name="Benchmarking" sheetId="13" r:id="rId7"/>
-    <sheet name="Altman Z-Score" sheetId="15" r:id="rId8"/>
-    <sheet name="DuPont Analyis" sheetId="14" r:id="rId9"/>
-    <sheet name="Income Quarterly" sheetId="2" r:id="rId10"/>
-    <sheet name="Balance Sheet Quarterly" sheetId="4" r:id="rId11"/>
-    <sheet name="Cash Flow Quarterly" sheetId="6" r:id="rId12"/>
-    <sheet name="Quarterly Ratios" sheetId="10" r:id="rId13"/>
+    <sheet name="Overview" sheetId="16" r:id="rId1"/>
+    <sheet name="Analysis Report" sheetId="17" r:id="rId2"/>
+    <sheet name="Income Yearly" sheetId="1" r:id="rId3"/>
+    <sheet name="Balance Sheet Yearly" sheetId="3" r:id="rId4"/>
+    <sheet name="Cash Flow Yearly" sheetId="5" r:id="rId5"/>
+    <sheet name="Yearly Ratios" sheetId="8" r:id="rId6"/>
+    <sheet name="Common Size Income Statement" sheetId="11" r:id="rId7"/>
+    <sheet name="Common Size Balance Sheet" sheetId="12" r:id="rId8"/>
+    <sheet name="Benchmarking" sheetId="13" r:id="rId9"/>
+    <sheet name="Altman Z-Score" sheetId="15" r:id="rId10"/>
+    <sheet name="DuPont Analyis" sheetId="14" r:id="rId11"/>
+    <sheet name="Income Quarterly" sheetId="2" r:id="rId12"/>
+    <sheet name="Balance Sheet Quarterly" sheetId="4" r:id="rId13"/>
+    <sheet name="Cash Flow Quarterly" sheetId="6" r:id="rId14"/>
+    <sheet name="Quarterly Ratios" sheetId="10" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="277">
   <si>
     <t>Total Revenue</t>
   </si>
@@ -752,6 +754,344 @@
   </si>
   <si>
     <t>(Total Assets ÷ Total Equity)</t>
+  </si>
+  <si>
+    <t>Annual Income Statements</t>
+  </si>
+  <si>
+    <t>Annual Cash Flow Statements</t>
+  </si>
+  <si>
+    <t>Annual Balance Sheets</t>
+  </si>
+  <si>
+    <t>Ratio Analysis covering profitability, liquidity, solvency, and efficiency ratios</t>
+  </si>
+  <si>
+    <t>Common-Size Income Statements and Balance Sheets</t>
+  </si>
+  <si>
+    <t>Benchmarking against competitors (DHL and UPS)</t>
+  </si>
+  <si>
+    <t>Altman Z-Score to assess bankruptcy risk</t>
+  </si>
+  <si>
+    <t>DuPont Analysis to deconstruct the Return on Equity (ROE)</t>
+  </si>
+  <si>
+    <t>Objective</t>
+  </si>
+  <si>
+    <t>The goal of this project is to provide a comprehensive financial analysis of FedEx over the past five years, using key financial statements and performance metrics. 
+The analysis covers income statements, balance sheets, cash flow statements, ratio analysis, common-size financials, benchmarking against competitors, Altman Z-Score analysis, and DuPont analysis.</t>
+  </si>
+  <si>
+    <t>Key Deliverables</t>
+  </si>
+  <si>
+    <t>Scope</t>
+  </si>
+  <si>
+    <r>
+      <t>Financial Trends Analysis:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Track FedEx's performance in terms of revenue, expenses, operating income, net income, and other key financial metrics over the past five years.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Financial Ratios:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Calculate and interpret FedEx’s profitability, liquidity, solvency, and efficiency using widely accepted financial ratios.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Benchmarking:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Compare FedEx's performance against competitors DHL and UPS.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Risk Analysis:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Use the Altman Z-Score to assess the financial stability of FedEx.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>DuPont Analysis:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Break down the components of FedEx's Return on Equity (ROE) to understand the driving factors behind its financial performance.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Project Title:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="3"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> FedEx Financial Analysis (2024 Edition)</t>
+    </r>
+  </si>
+  <si>
+    <t>Over the past five years, FedEx's total revenue showed fluctuating growth, with revenue peaking in 2022 but seeing a decline in 2023 and 2024. Gross profit followed a similar pattern, indicating pressure on margins due to rising costs of revenue. Operating income has experienced volatile trends, with a sharp decrease in 2024 primarily driven by rising operating expenses.</t>
+  </si>
+  <si>
+    <t>FedEx has demonstrated strong operating cash flow generation throughout the period, though there was a marked decline in 2024. Cash flow from investing activities has remained negative, driven by consistent capital expenditures. Cash flow from financing saw significant fluctuations, with periods of large stock repurchases and debt repayments.</t>
+  </si>
+  <si>
+    <t>When compared to its competitors, DHL and UPS, FedEx shows strong gross profit and operating margins. However, its net profit margin lags behind UPS, reflecting higher costs. FedEx also holds a competitive advantage in working capital and cash generation but falls behind in shareholder equity and return on assets compared to UPS.</t>
+  </si>
+  <si>
+    <t>Key Competitor Insights:</t>
+  </si>
+  <si>
+    <t>The Altman Z-Score for FedEx has remained above the threshold for financial distress throughout the period, suggesting that the company is not at immediate risk of bankruptcy. However, the score has trended downwards in recent years, indicating the need for close monitoring of financial health, particularly in light of rising liabilities and declining EBIT.</t>
+  </si>
+  <si>
+    <t>FedEx’s Return on Equity (ROE) in 2024 stood at 0.16, driven by a relatively low net profit margin of 5%, stable asset turnover, and an equity multiplier of 3.15. The equity multiplier has remained elevated, reflecting significant leverage, which is contributing positively to ROE. However, profitability pressures are limiting further growth in ROE.</t>
+  </si>
+  <si>
+    <r>
+      <t>DHL:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> FedEx outperforms DHL in revenue per share and operating income, though DHL has a higher net profit margin.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>UPS:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> UPS leads in net profit margin and return on equity, reflecting stronger cost control and equity performance.</t>
+    </r>
+  </si>
+  <si>
+    <t>6. DuPont Analysis</t>
+  </si>
+  <si>
+    <t>5. Altman Z-Score Analysis</t>
+  </si>
+  <si>
+    <t>4. Benchmarking</t>
+  </si>
+  <si>
+    <t>3. Ratio Analysis</t>
+  </si>
+  <si>
+    <t>2. Cash Flow Statement Analysis</t>
+  </si>
+  <si>
+    <t>1. Income Statement Analysis</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Revenue Trends
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>FedEx saw significant revenue growth from 2020 to 2022, but a drop-off in 2023 and 2024 indicates challenges, possibly due to macroeconomic conditions.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Gross Profit Margin
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Despite revenue fluctuations, the gross profit margin remained relatively stable, reflecting consistent cost management efforts.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Operating Income
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>A significant decline in 2024 points to rising expenses, particularly in selling, general, and administrative expenses.</t>
+    </r>
+  </si>
+  <si>
+    <t>Analysis Report</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Operating Cash Flow
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>FedEx maintained healthy operating cash flows but faced a decline in 2024, indicating potential challenges in converting revenue into cash.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Investment
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Consistent capital expenditures reflect the company’s investment in long-term assets, aligning with its growth strategy.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Financing Activities
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Large fluctuations in financing cash flows indicate changes in capital structure, including significant stock buybacks and debt management.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Profitability Ratios
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>FedEx’s gross profit margin remains solid at around 55%, while the operating margin has dipped in recent years, down to 6.39% in 2024. Net profit margin remains tight, reflecting rising cost pressures.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Liquidity Ratios
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>The current and quick ratios have remained relatively stable, indicating that FedEx maintains sufficient liquidity to cover its short-term liabilities.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Solvency Ratios
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>The debt-to-equity ratio has decreased slightly over time, suggesting that FedEx has been managing its leverage effectively. Interest coverage remains strong, indicating that the company can cover its interest expenses comfortably.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Efficiency Ratios
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>The asset turnover ratio is strong, indicating efficient use of assets. Inventory and receivables turnover show that FedEx has effective working capital management.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -762,9 +1102,9 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="#,##0,,"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
-    <numFmt numFmtId="176" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -836,6 +1176,60 @@
     <font>
       <sz val="8"/>
       <color theme="0" tint="-0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -912,7 +1306,7 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1036,6 +1430,10 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1054,12 +1452,25 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1376,1089 +1787,639 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:N28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5BF6536-5DE5-7D44-B22B-3704B9BF42A8}">
+  <dimension ref="B2:B22"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:H4"/>
+    <sheetView showGridLines="0" zoomScale="75" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="6"/>
-    <col min="2" max="2" width="40.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="12.1640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="1.83203125" style="6" customWidth="1"/>
-    <col min="10" max="10" width="9" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="10" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.83203125" style="6"/>
+    <col min="1" max="1" width="10.83203125" style="79"/>
+    <col min="2" max="2" width="255.83203125" style="79" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="79"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="59" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="3" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="J3" s="42"/>
-    </row>
-    <row r="4" spans="2:14" s="38" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="58" t="s">
-        <v>203</v>
-      </c>
-      <c r="C4" s="55">
-        <v>2024</v>
-      </c>
-      <c r="D4" s="55">
-        <v>2023</v>
-      </c>
-      <c r="E4" s="55">
-        <v>2022</v>
-      </c>
-      <c r="F4" s="55">
-        <v>2021</v>
-      </c>
-      <c r="G4" s="55">
-        <v>2020</v>
-      </c>
-      <c r="H4" s="55">
-        <v>2019</v>
-      </c>
-      <c r="J4" s="56" t="s">
-        <v>198</v>
-      </c>
-      <c r="K4" s="56" t="s">
-        <v>199</v>
-      </c>
-      <c r="L4" s="56" t="s">
-        <v>200</v>
-      </c>
-      <c r="M4" s="56" t="s">
-        <v>201</v>
-      </c>
-      <c r="N4" s="56" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" s="13" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="15">
-        <v>86948000000</v>
-      </c>
-      <c r="D5" s="16">
-        <v>89461000000</v>
-      </c>
-      <c r="E5" s="15">
-        <v>92823000000</v>
-      </c>
-      <c r="F5" s="15">
-        <v>82773000000</v>
-      </c>
-      <c r="G5" s="15">
-        <v>68545000000</v>
-      </c>
-      <c r="H5" s="15">
-        <v>69113000000</v>
-      </c>
-      <c r="J5" s="42">
-        <f>C5/D5-1</f>
-        <v>-2.8090452823017809E-2</v>
-      </c>
-      <c r="K5" s="42">
-        <f t="shared" ref="K5:N5" si="0">D5/E5-1</f>
-        <v>-3.6219471467201059E-2</v>
-      </c>
-      <c r="L5" s="42">
-        <f t="shared" si="0"/>
-        <v>0.12141640389982244</v>
-      </c>
-      <c r="M5" s="42">
-        <f t="shared" si="0"/>
-        <v>0.20757166824713691</v>
-      </c>
-      <c r="N5" s="42">
-        <f t="shared" si="0"/>
-        <v>-8.2184248983548924E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="21">
-        <v>39058000000</v>
-      </c>
-      <c r="D6" s="22">
-        <v>40053000000</v>
-      </c>
-      <c r="E6" s="21">
-        <v>42009000000</v>
-      </c>
-      <c r="F6" s="21">
-        <v>35310000000</v>
-      </c>
-      <c r="G6" s="21">
-        <v>32586000000</v>
-      </c>
-      <c r="H6" s="21">
-        <v>48890000000</v>
-      </c>
-      <c r="J6" s="42">
-        <f t="shared" ref="J6:J27" si="1">C6/D6-1</f>
-        <v>-2.4842084238384188E-2</v>
-      </c>
-      <c r="K6" s="42">
-        <f t="shared" ref="K6:K27" si="2">D6/E6-1</f>
-        <v>-4.6561451117617669E-2</v>
-      </c>
-      <c r="L6" s="42">
-        <f t="shared" ref="L6:L27" si="3">E6/F6-1</f>
-        <v>0.18971962616822435</v>
-      </c>
-      <c r="M6" s="42">
-        <f t="shared" ref="M6:M27" si="4">F6/G6-1</f>
-        <v>8.3594181550359137E-2</v>
-      </c>
-      <c r="N6" s="42">
-        <f t="shared" ref="N6:N27" si="5">G6/H6-1</f>
-        <v>-0.33348332992431995</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" s="13" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="15">
-        <f>C5-C6</f>
-        <v>47890000000</v>
-      </c>
-      <c r="D7" s="16">
-        <f t="shared" ref="D7:H7" si="6">D5-D6</f>
-        <v>49408000000</v>
-      </c>
-      <c r="E7" s="15">
-        <f t="shared" si="6"/>
-        <v>50814000000</v>
-      </c>
-      <c r="F7" s="15">
-        <f t="shared" si="6"/>
-        <v>47463000000</v>
-      </c>
-      <c r="G7" s="15">
-        <f t="shared" si="6"/>
-        <v>35959000000</v>
-      </c>
-      <c r="H7" s="15">
-        <f t="shared" si="6"/>
-        <v>20223000000</v>
-      </c>
-      <c r="J7" s="42">
-        <f t="shared" si="1"/>
-        <v>-3.0723769430051839E-2</v>
-      </c>
-      <c r="K7" s="42">
-        <f t="shared" si="2"/>
-        <v>-2.7669539890581296E-2</v>
-      </c>
-      <c r="L7" s="42">
-        <f t="shared" si="3"/>
-        <v>7.0602363946653091E-2</v>
-      </c>
-      <c r="M7" s="42">
-        <f t="shared" si="4"/>
-        <v>0.31991990878500509</v>
-      </c>
-      <c r="N7" s="42">
-        <f t="shared" si="5"/>
-        <v>0.77812391831083416</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="10">
-        <v>584000000</v>
-      </c>
-      <c r="D8" s="12">
-        <v>617000000</v>
-      </c>
-      <c r="E8" s="10">
-        <v>660000000</v>
-      </c>
-      <c r="F8" s="10">
-        <v>628000000</v>
-      </c>
-      <c r="G8" s="10">
-        <v>595000000</v>
-      </c>
-      <c r="H8" s="10">
-        <v>3739000000</v>
-      </c>
-      <c r="J8" s="42">
-        <f t="shared" si="1"/>
-        <v>-5.3484602917342028E-2</v>
-      </c>
-      <c r="K8" s="42">
-        <f t="shared" si="2"/>
-        <v>-6.5151515151515182E-2</v>
-      </c>
-      <c r="L8" s="42">
-        <f t="shared" si="3"/>
-        <v>5.0955414012738842E-2</v>
-      </c>
-      <c r="M8" s="42">
-        <f t="shared" si="4"/>
-        <v>5.5462184873949605E-2</v>
-      </c>
-      <c r="N8" s="42">
-        <f t="shared" si="5"/>
-        <v>-0.8408665418561112</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="10">
-        <v>0</v>
-      </c>
-      <c r="D9" s="12">
-        <v>0</v>
-      </c>
-      <c r="E9" s="10">
-        <v>0</v>
-      </c>
-      <c r="F9" s="10">
-        <v>0</v>
-      </c>
-      <c r="G9" s="10">
-        <v>0</v>
-      </c>
-      <c r="H9" s="10">
-        <v>0</v>
-      </c>
-      <c r="J9" s="42">
-        <v>0</v>
-      </c>
-      <c r="K9" s="42">
-        <v>0</v>
-      </c>
-      <c r="L9" s="42">
-        <v>0</v>
-      </c>
-      <c r="M9" s="42">
-        <v>0</v>
-      </c>
-      <c r="N9" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="10">
-        <v>13893000000</v>
-      </c>
-      <c r="D10" s="12">
-        <v>15346000000</v>
-      </c>
-      <c r="E10" s="10">
-        <v>14785000000</v>
-      </c>
-      <c r="F10" s="10">
-        <v>13503000000</v>
-      </c>
-      <c r="G10" s="10">
-        <v>12353000000</v>
-      </c>
-      <c r="H10" s="10">
-        <v>14537000000</v>
-      </c>
-      <c r="J10" s="42">
-        <f t="shared" si="1"/>
-        <v>-9.4682653460185118E-2</v>
-      </c>
-      <c r="K10" s="42">
-        <f t="shared" si="2"/>
-        <v>3.794386202232003E-2</v>
-      </c>
-      <c r="L10" s="42">
-        <f t="shared" si="3"/>
-        <v>9.4941864770791584E-2</v>
-      </c>
-      <c r="M10" s="42">
-        <f t="shared" si="4"/>
-        <v>9.3094794786691581E-2</v>
-      </c>
-      <c r="N10" s="42">
-        <f t="shared" si="5"/>
-        <v>-0.15023732544541513</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" s="13" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="24">
-        <v>5559000000</v>
-      </c>
-      <c r="D11" s="25">
-        <v>4912000000</v>
-      </c>
-      <c r="E11" s="24">
-        <v>6245000000</v>
-      </c>
-      <c r="F11" s="24">
-        <v>5857000000</v>
-      </c>
-      <c r="G11" s="24">
-        <v>2417000000</v>
-      </c>
-      <c r="H11" s="24">
-        <v>4466000000</v>
-      </c>
-      <c r="J11" s="42">
-        <f t="shared" si="1"/>
-        <v>0.1317182410423452</v>
-      </c>
-      <c r="K11" s="42">
-        <f t="shared" si="2"/>
-        <v>-0.21345076060848678</v>
-      </c>
-      <c r="L11" s="42">
-        <f t="shared" si="3"/>
-        <v>6.6245518183370322E-2</v>
-      </c>
-      <c r="M11" s="42">
-        <f t="shared" si="4"/>
-        <v>1.4232519652461728</v>
-      </c>
-      <c r="N11" s="42">
-        <f t="shared" si="5"/>
-        <v>-0.45879982086878635</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="10">
-        <v>370000000</v>
-      </c>
-      <c r="D12" s="12">
-        <v>198000000</v>
-      </c>
-      <c r="E12" s="10">
-        <v>53000000</v>
-      </c>
-      <c r="F12" s="10">
-        <v>52000000</v>
-      </c>
-      <c r="G12" s="10">
-        <v>55000000</v>
-      </c>
-      <c r="H12" s="10">
-        <v>59000000</v>
-      </c>
-      <c r="J12" s="42">
-        <f t="shared" si="1"/>
-        <v>0.86868686868686873</v>
-      </c>
-      <c r="K12" s="42">
-        <f t="shared" si="2"/>
-        <v>2.7358490566037736</v>
-      </c>
-      <c r="L12" s="42">
-        <f t="shared" si="3"/>
-        <v>1.9230769230769162E-2</v>
-      </c>
-      <c r="M12" s="42">
-        <f t="shared" si="4"/>
-        <v>-5.4545454545454564E-2</v>
-      </c>
-      <c r="N12" s="42">
-        <f t="shared" si="5"/>
-        <v>-6.7796610169491567E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="10">
-        <v>-745000000</v>
-      </c>
-      <c r="D13" s="12">
-        <v>-694000000</v>
-      </c>
-      <c r="E13" s="10">
-        <v>-689000000</v>
-      </c>
-      <c r="F13" s="10">
-        <v>-793000000</v>
-      </c>
-      <c r="G13" s="10">
-        <v>-672000000</v>
-      </c>
-      <c r="H13" s="10">
-        <v>-588000000</v>
-      </c>
-      <c r="J13" s="42">
-        <f t="shared" si="1"/>
-        <v>7.3487031700288252E-2</v>
-      </c>
-      <c r="K13" s="42">
-        <f t="shared" si="2"/>
-        <v>7.2568940493469292E-3</v>
-      </c>
-      <c r="L13" s="42">
-        <f t="shared" si="3"/>
-        <v>-0.13114754098360659</v>
-      </c>
-      <c r="M13" s="42">
-        <f t="shared" si="4"/>
-        <v>0.18005952380952372</v>
-      </c>
-      <c r="N13" s="42">
-        <f t="shared" si="5"/>
-        <v>0.14285714285714279</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="10">
-        <v>370000000</v>
-      </c>
-      <c r="D14" s="12">
-        <v>496000000</v>
-      </c>
-      <c r="E14" s="10">
-        <v>53000000</v>
-      </c>
-      <c r="F14" s="10">
-        <v>741000000</v>
-      </c>
-      <c r="G14" s="10">
-        <v>55000000</v>
-      </c>
-      <c r="H14" s="10">
-        <v>59000000</v>
-      </c>
-      <c r="J14" s="42">
-        <f t="shared" si="1"/>
-        <v>-0.25403225806451613</v>
-      </c>
-      <c r="K14" s="42">
-        <f t="shared" si="2"/>
-        <v>8.3584905660377355</v>
-      </c>
-      <c r="L14" s="42">
-        <f t="shared" si="3"/>
-        <v>-0.92847503373819162</v>
-      </c>
-      <c r="M14" s="42">
-        <f t="shared" si="4"/>
-        <v>12.472727272727273</v>
-      </c>
-      <c r="N14" s="42">
-        <f t="shared" si="5"/>
-        <v>-6.7796610169491567E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="10">
-        <v>745000000</v>
-      </c>
-      <c r="D15" s="12">
-        <v>694000000</v>
-      </c>
-      <c r="E15" s="10">
-        <v>689000000</v>
-      </c>
-      <c r="F15" s="10">
-        <v>793000000</v>
-      </c>
-      <c r="G15" s="10">
-        <v>672000000</v>
-      </c>
-      <c r="H15" s="10">
-        <v>588000000</v>
-      </c>
-      <c r="J15" s="42">
-        <f t="shared" si="1"/>
-        <v>7.3487031700288252E-2</v>
-      </c>
-      <c r="K15" s="42">
-        <f t="shared" si="2"/>
-        <v>7.2568940493469292E-3</v>
-      </c>
-      <c r="L15" s="42">
-        <f t="shared" si="3"/>
-        <v>-0.13114754098360659</v>
-      </c>
-      <c r="M15" s="42">
-        <f t="shared" si="4"/>
-        <v>0.18005952380952372</v>
-      </c>
-      <c r="N15" s="42">
-        <f t="shared" si="5"/>
-        <v>0.14285714285714279</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="10">
-        <v>87693000000</v>
-      </c>
-      <c r="D16" s="12">
-        <v>90155000000</v>
-      </c>
-      <c r="E16" s="10">
-        <v>93512000000</v>
-      </c>
-      <c r="F16" s="10">
-        <v>83566000000</v>
-      </c>
-      <c r="G16" s="10">
-        <v>69217000000</v>
-      </c>
-      <c r="H16" s="10">
-        <v>69701000000</v>
-      </c>
-      <c r="J16" s="42">
-        <f t="shared" si="1"/>
-        <v>-2.7308524208307872E-2</v>
-      </c>
-      <c r="K16" s="42">
-        <f t="shared" si="2"/>
-        <v>-3.5899135939772453E-2</v>
-      </c>
-      <c r="L16" s="42">
-        <f t="shared" si="3"/>
-        <v>0.11901969700595938</v>
-      </c>
-      <c r="M16" s="42">
-        <f t="shared" si="4"/>
-        <v>0.20730456390771046</v>
-      </c>
-      <c r="N16" s="42">
-        <f t="shared" si="5"/>
-        <v>-6.9439462848452926E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="10">
-        <v>-70000000</v>
-      </c>
-      <c r="D17" s="12">
-        <v>-107000000</v>
-      </c>
-      <c r="E17" s="10">
-        <v>13000000</v>
-      </c>
-      <c r="F17" s="10">
-        <v>-32000000</v>
-      </c>
-      <c r="G17" s="10">
-        <v>-9000000</v>
-      </c>
-      <c r="H17" s="10">
-        <v>-31000000</v>
-      </c>
-      <c r="J17" s="42">
-        <f t="shared" si="1"/>
-        <v>-0.34579439252336452</v>
-      </c>
-      <c r="K17" s="42">
-        <f t="shared" si="2"/>
-        <v>-9.2307692307692299</v>
-      </c>
-      <c r="L17" s="42">
-        <f t="shared" si="3"/>
-        <v>-1.40625</v>
-      </c>
-      <c r="M17" s="42">
-        <f t="shared" si="4"/>
-        <v>2.5555555555555554</v>
-      </c>
-      <c r="N17" s="42">
-        <f t="shared" si="5"/>
-        <v>-0.70967741935483875</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="10">
-        <v>0</v>
-      </c>
-      <c r="D18" s="12">
-        <v>0</v>
-      </c>
-      <c r="E18" s="10">
-        <v>0</v>
-      </c>
-      <c r="F18" s="10">
-        <v>0</v>
-      </c>
-      <c r="G18" s="10">
-        <v>0</v>
-      </c>
-      <c r="H18" s="10">
-        <v>0</v>
-      </c>
-      <c r="J18" s="42">
-        <v>0</v>
-      </c>
-      <c r="K18" s="42">
-        <v>0</v>
-      </c>
-      <c r="L18" s="42">
-        <v>0</v>
-      </c>
-      <c r="M18" s="42">
-        <v>0</v>
-      </c>
-      <c r="N18" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="10">
-        <v>77000000</v>
-      </c>
-      <c r="D19" s="12">
-        <v>88000000</v>
-      </c>
-      <c r="E19" s="10">
-        <v>78000000</v>
-      </c>
-      <c r="F19" s="10">
-        <v>72000000</v>
-      </c>
-      <c r="G19" s="10">
-        <v>84000000</v>
-      </c>
-      <c r="H19" s="10">
-        <v>82000000</v>
-      </c>
-      <c r="J19" s="42">
-        <f t="shared" si="1"/>
-        <v>-0.125</v>
-      </c>
-      <c r="K19" s="42">
-        <f t="shared" si="2"/>
-        <v>0.12820512820512819</v>
-      </c>
-      <c r="L19" s="42">
-        <f t="shared" si="3"/>
-        <v>8.3333333333333259E-2</v>
-      </c>
-      <c r="M19" s="42">
-        <f t="shared" si="4"/>
-        <v>-0.1428571428571429</v>
-      </c>
-      <c r="N19" s="42">
-        <f t="shared" si="5"/>
-        <v>2.4390243902439046E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" s="13" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="24">
-        <v>5836000000</v>
-      </c>
-      <c r="D20" s="25">
-        <v>5363000000</v>
-      </c>
-      <c r="E20" s="24">
-        <v>4896000000</v>
-      </c>
-      <c r="F20" s="24">
-        <v>6674000000</v>
-      </c>
-      <c r="G20" s="24">
-        <v>1669000000</v>
-      </c>
-      <c r="H20" s="24">
-        <v>655000000</v>
-      </c>
-      <c r="J20" s="42">
-        <f t="shared" si="1"/>
-        <v>8.8196904717508851E-2</v>
-      </c>
-      <c r="K20" s="42">
-        <f t="shared" si="2"/>
-        <v>9.5383986928104569E-2</v>
-      </c>
-      <c r="L20" s="42">
-        <f t="shared" si="3"/>
-        <v>-0.2664069523524123</v>
-      </c>
-      <c r="M20" s="42">
-        <f t="shared" si="4"/>
-        <v>2.9988016776512882</v>
-      </c>
-      <c r="N20" s="42">
-        <f t="shared" si="5"/>
-        <v>1.5480916030534351</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="10">
-        <v>1505000000</v>
-      </c>
-      <c r="D21" s="12">
-        <v>1391000000</v>
-      </c>
-      <c r="E21" s="10">
-        <v>1070000000</v>
-      </c>
-      <c r="F21" s="10">
-        <v>1443000000</v>
-      </c>
-      <c r="G21" s="10">
-        <v>383000000</v>
-      </c>
-      <c r="H21" s="10">
-        <v>115000000</v>
-      </c>
-      <c r="J21" s="42">
-        <f t="shared" si="1"/>
-        <v>8.1955427749820231E-2</v>
-      </c>
-      <c r="K21" s="42">
-        <f t="shared" si="2"/>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="L21" s="42">
-        <f t="shared" si="3"/>
-        <v>-0.25848925848925852</v>
-      </c>
-      <c r="M21" s="42">
-        <f t="shared" si="4"/>
-        <v>2.7676240208877285</v>
-      </c>
-      <c r="N21" s="42">
-        <f t="shared" si="5"/>
-        <v>2.3304347826086955</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="10">
-        <v>745000000</v>
-      </c>
-      <c r="D22" s="12">
-        <v>694000000</v>
-      </c>
-      <c r="E22" s="10">
-        <v>689000000</v>
-      </c>
-      <c r="F22" s="10">
-        <v>1186000000</v>
-      </c>
-      <c r="G22" s="10">
-        <v>672000000</v>
-      </c>
-      <c r="H22" s="10">
-        <v>588000000</v>
-      </c>
-      <c r="J22" s="42">
-        <f t="shared" si="1"/>
-        <v>7.3487031700288252E-2</v>
-      </c>
-      <c r="K22" s="42">
-        <f t="shared" si="2"/>
-        <v>7.2568940493469292E-3</v>
-      </c>
-      <c r="L22" s="42">
-        <f t="shared" si="3"/>
-        <v>-0.41905564924114669</v>
-      </c>
-      <c r="M22" s="42">
-        <f t="shared" si="4"/>
-        <v>0.76488095238095233</v>
-      </c>
-      <c r="N22" s="42">
-        <f t="shared" si="5"/>
-        <v>0.14285714285714279</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" s="13" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="24">
-        <v>4331000000</v>
-      </c>
-      <c r="D23" s="25">
-        <v>3972000000</v>
-      </c>
-      <c r="E23" s="24">
-        <v>3826000000</v>
-      </c>
-      <c r="F23" s="24">
-        <v>5231000000</v>
-      </c>
-      <c r="G23" s="24">
-        <v>1286000000</v>
-      </c>
-      <c r="H23" s="24">
-        <v>540000000</v>
-      </c>
-      <c r="J23" s="42">
-        <f t="shared" si="1"/>
-        <v>9.0382678751258716E-2</v>
-      </c>
-      <c r="K23" s="42">
-        <f t="shared" si="2"/>
-        <v>3.8159958180867815E-2</v>
-      </c>
-      <c r="L23" s="42">
-        <f t="shared" si="3"/>
-        <v>-0.26859109156948957</v>
-      </c>
-      <c r="M23" s="42">
-        <f t="shared" si="4"/>
-        <v>3.0676516329704508</v>
-      </c>
-      <c r="N23" s="42">
-        <f t="shared" si="5"/>
-        <v>1.3814814814814813</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" s="10">
-        <v>4299000000</v>
-      </c>
-      <c r="D24" s="12">
-        <v>3748000000</v>
-      </c>
-      <c r="E24" s="10">
-        <v>3455000000</v>
-      </c>
-      <c r="F24" s="10">
-        <v>5646000000</v>
-      </c>
-      <c r="G24" s="10">
-        <v>953000000</v>
-      </c>
-      <c r="H24" s="10">
-        <v>253000000</v>
-      </c>
-      <c r="J24" s="42">
-        <f t="shared" si="1"/>
-        <v>0.14701173959445035</v>
-      </c>
-      <c r="K24" s="42">
-        <f t="shared" si="2"/>
-        <v>8.4804630969609329E-2</v>
-      </c>
-      <c r="L24" s="42">
-        <f t="shared" si="3"/>
-        <v>-0.38806234502302517</v>
-      </c>
-      <c r="M24" s="42">
-        <f t="shared" si="4"/>
-        <v>4.9244491080797479</v>
-      </c>
-      <c r="N24" s="42">
-        <f t="shared" si="5"/>
-        <v>2.766798418972332</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" s="13" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="15">
-        <v>6581000000</v>
-      </c>
-      <c r="D25" s="16">
-        <v>6057000000</v>
-      </c>
-      <c r="E25" s="15">
-        <v>5585000000</v>
-      </c>
-      <c r="F25" s="15">
-        <v>7467000000</v>
-      </c>
-      <c r="G25" s="15">
-        <v>2341000000</v>
-      </c>
-      <c r="H25" s="15">
-        <v>1243000000</v>
-      </c>
-      <c r="J25" s="42">
-        <f t="shared" si="1"/>
-        <v>8.6511474327224613E-2</v>
-      </c>
-      <c r="K25" s="42">
-        <f t="shared" si="2"/>
-        <v>8.4512085944494109E-2</v>
-      </c>
-      <c r="L25" s="42">
-        <f t="shared" si="3"/>
-        <v>-0.25204231953930634</v>
-      </c>
-      <c r="M25" s="42">
-        <f t="shared" si="4"/>
-        <v>2.1896625373771892</v>
-      </c>
-      <c r="N25" s="42">
-        <f t="shared" si="5"/>
-        <v>0.88334674175382144</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14" s="13" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26" s="15">
-        <v>6658000000</v>
-      </c>
-      <c r="D26" s="16">
-        <v>6145000000</v>
-      </c>
-      <c r="E26" s="15">
-        <v>5663000000</v>
-      </c>
-      <c r="F26" s="15">
-        <v>7539000000</v>
-      </c>
-      <c r="G26" s="15">
-        <v>2425000000</v>
-      </c>
-      <c r="H26" s="15">
-        <v>1325000000</v>
-      </c>
-      <c r="J26" s="42">
-        <f t="shared" si="1"/>
-        <v>8.3482506102522391E-2</v>
-      </c>
-      <c r="K26" s="42">
-        <f t="shared" si="2"/>
-        <v>8.5113897227617974E-2</v>
-      </c>
-      <c r="L26" s="42">
-        <f t="shared" si="3"/>
-        <v>-0.24883936861652745</v>
-      </c>
-      <c r="M26" s="42">
-        <f t="shared" si="4"/>
-        <v>2.1088659793814433</v>
-      </c>
-      <c r="N26" s="42">
-        <f t="shared" si="5"/>
-        <v>0.83018867924528306</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14" s="13" customFormat="1" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="51">
-        <v>4331000000</v>
-      </c>
-      <c r="D27" s="52">
-        <v>3972000000</v>
-      </c>
-      <c r="E27" s="51">
-        <v>3826000000</v>
-      </c>
-      <c r="F27" s="51">
-        <v>5231000000</v>
-      </c>
-      <c r="G27" s="51">
-        <v>1286000000</v>
-      </c>
-      <c r="H27" s="51">
-        <v>540000000</v>
-      </c>
-      <c r="J27" s="42">
-        <f t="shared" si="1"/>
-        <v>9.0382678751258716E-2</v>
-      </c>
-      <c r="K27" s="42">
-        <f t="shared" si="2"/>
-        <v>3.8159958180867815E-2</v>
-      </c>
-      <c r="L27" s="42">
-        <f t="shared" si="3"/>
-        <v>-0.26859109156948957</v>
-      </c>
-      <c r="M27" s="42">
-        <f t="shared" si="4"/>
-        <v>3.0676516329704508</v>
-      </c>
-      <c r="N27" s="42">
-        <f t="shared" si="5"/>
-        <v>1.3814814814814813</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" ht="16" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="C28" s="8" t="s">
-        <v>204</v>
+    <row r="2" spans="2:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="B2" s="82" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="B4" s="83" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" ht="42" x14ac:dyDescent="0.2">
+      <c r="B5" s="80" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="B7" s="83" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B8" s="79" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B9" s="79" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B10" s="79" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B11" s="79" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B12" s="79" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B13" s="79" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B14" s="79" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B15" s="79" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="B17" s="83" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" s="81" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" s="81" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B20" s="81" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B21" s="81" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B22" s="81" t="s">
+        <v>250</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C3:H3"/>
-  </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="J5:N27">
-    <cfRule type="iconSet" priority="1">
-      <iconSet>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="0.1"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{373F68BB-5F05-4241-9EAB-37EA7DDB7ADF}">
+  <dimension ref="B2:I15"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="125" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.6640625" style="1" customWidth="1"/>
+    <col min="4" max="9" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="68" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="62" t="s">
+        <v>224</v>
+      </c>
+      <c r="C4" s="69"/>
+      <c r="D4" s="55">
+        <v>2024</v>
+      </c>
+      <c r="E4" s="55">
+        <v>2023</v>
+      </c>
+      <c r="F4" s="55">
+        <v>2022</v>
+      </c>
+      <c r="G4" s="55">
+        <v>2021</v>
+      </c>
+      <c r="H4" s="55">
+        <v>2020</v>
+      </c>
+      <c r="I4" s="55">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D5" s="45">
+        <f>'Balance Sheet Yearly'!C5-'Balance Sheet Yearly'!C19</f>
+        <v>4852000000</v>
+      </c>
+      <c r="E5" s="45">
+        <f>'Balance Sheet Yearly'!D5-'Balance Sheet Yearly'!D19</f>
+        <v>5024000000</v>
+      </c>
+      <c r="F5" s="45">
+        <f>'Balance Sheet Yearly'!E5-'Balance Sheet Yearly'!E19</f>
+        <v>6091000000</v>
+      </c>
+      <c r="G5" s="45">
+        <f>'Balance Sheet Yearly'!F5-'Balance Sheet Yearly'!F19</f>
+        <v>6920000000</v>
+      </c>
+      <c r="H5" s="45">
+        <f>'Balance Sheet Yearly'!G5-'Balance Sheet Yearly'!G19</f>
+        <v>6039000000</v>
+      </c>
+      <c r="I5" s="45">
+        <f>'Balance Sheet Yearly'!H5-'Balance Sheet Yearly'!H19</f>
+        <v>4073000000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" s="45">
+        <f>'Balance Sheet Yearly'!C18</f>
+        <v>87007000000</v>
+      </c>
+      <c r="E6" s="45">
+        <f>'Balance Sheet Yearly'!D18</f>
+        <v>87143000000</v>
+      </c>
+      <c r="F6" s="45">
+        <f>'Balance Sheet Yearly'!E18</f>
+        <v>85994000000</v>
+      </c>
+      <c r="G6" s="45">
+        <f>'Balance Sheet Yearly'!F18</f>
+        <v>82777000000</v>
+      </c>
+      <c r="H6" s="45">
+        <f>'Balance Sheet Yearly'!G18</f>
+        <v>73537000000</v>
+      </c>
+      <c r="I6" s="45">
+        <f>'Balance Sheet Yearly'!H18</f>
+        <v>54403000000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D7" s="45">
+        <f>'Balance Sheet Yearly'!C31</f>
+        <v>38649000000</v>
+      </c>
+      <c r="E7" s="45">
+        <f>'Balance Sheet Yearly'!D31</f>
+        <v>35259000000</v>
+      </c>
+      <c r="F7" s="45">
+        <f>'Balance Sheet Yearly'!E31</f>
+        <v>32782000000</v>
+      </c>
+      <c r="G7" s="45">
+        <f>'Balance Sheet Yearly'!F31</f>
+        <v>29817000000</v>
+      </c>
+      <c r="H7" s="45">
+        <f>'Balance Sheet Yearly'!G31</f>
+        <v>25216000000</v>
+      </c>
+      <c r="I7" s="45">
+        <f>'Balance Sheet Yearly'!H31</f>
+        <v>24648000000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="45">
+        <f>'Income Yearly'!C25</f>
+        <v>6581000000</v>
+      </c>
+      <c r="E8" s="45">
+        <f>'Income Yearly'!D25</f>
+        <v>6057000000</v>
+      </c>
+      <c r="F8" s="45">
+        <f>'Income Yearly'!E25</f>
+        <v>5585000000</v>
+      </c>
+      <c r="G8" s="45">
+        <f>'Income Yearly'!F25</f>
+        <v>7467000000</v>
+      </c>
+      <c r="H8" s="45">
+        <f>'Income Yearly'!G25</f>
+        <v>2341000000</v>
+      </c>
+      <c r="I8" s="45">
+        <f>'Income Yearly'!H25</f>
+        <v>1243000000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D9" s="1">
+        <v>288.42</v>
+      </c>
+      <c r="E9" s="1">
+        <v>252.97</v>
+      </c>
+      <c r="F9" s="1">
+        <v>173.2</v>
+      </c>
+      <c r="G9" s="1">
+        <v>258.64</v>
+      </c>
+      <c r="H9" s="1">
+        <v>259.62</v>
+      </c>
+      <c r="I9" s="1">
+        <v>151.21</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D10" s="45">
+        <f>D9*'Balance Sheet Yearly'!C33</f>
+        <v>70662900000</v>
+      </c>
+      <c r="E10" s="45">
+        <f>E9*'Balance Sheet Yearly'!D33</f>
+        <v>63495470000</v>
+      </c>
+      <c r="F10" s="45">
+        <f>F9*'Balance Sheet Yearly'!E33</f>
+        <v>45032000000</v>
+      </c>
+      <c r="G10" s="45">
+        <f>G9*'Balance Sheet Yearly'!F33</f>
+        <v>69056880000</v>
+      </c>
+      <c r="H10" s="45">
+        <f>H9*'Balance Sheet Yearly'!G33</f>
+        <v>67760820000</v>
+      </c>
+      <c r="I10" s="45">
+        <f>I9*'Balance Sheet Yearly'!H33</f>
+        <v>39617020000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D11" s="45">
+        <f>'Balance Sheet Yearly'!C28</f>
+        <v>59425000000</v>
+      </c>
+      <c r="E11" s="45">
+        <f>'Balance Sheet Yearly'!D28</f>
+        <v>61055000000</v>
+      </c>
+      <c r="F11" s="45">
+        <f>'Balance Sheet Yearly'!E28</f>
+        <v>61055000000</v>
+      </c>
+      <c r="G11" s="45">
+        <f>'Balance Sheet Yearly'!F28</f>
+        <v>58609000000</v>
+      </c>
+      <c r="H11" s="45">
+        <f>'Balance Sheet Yearly'!G28</f>
+        <v>55242000000</v>
+      </c>
+      <c r="I11" s="45">
+        <f>'Balance Sheet Yearly'!H28</f>
+        <v>36646000000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="C12" s="33"/>
+      <c r="D12" s="37">
+        <f>'Income Yearly'!C5</f>
+        <v>86948000000</v>
+      </c>
+      <c r="E12" s="37">
+        <f>'Income Yearly'!D5</f>
+        <v>89461000000</v>
+      </c>
+      <c r="F12" s="37">
+        <f>'Income Yearly'!E5</f>
+        <v>92823000000</v>
+      </c>
+      <c r="G12" s="37">
+        <f>'Income Yearly'!F5</f>
+        <v>82773000000</v>
+      </c>
+      <c r="H12" s="37">
+        <f>'Income Yearly'!G5</f>
+        <v>68545000000</v>
+      </c>
+      <c r="I12" s="37">
+        <f>'Income Yearly'!H5</f>
+        <v>69113000000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="C13" s="17"/>
+      <c r="D13" s="70">
+        <f>1.2*(D5/D6)+1.4*(D7/D6)+3.3*(D8/D6)+0.6*(D10/D11)+1*(D12/D6)</f>
+        <v>2.6511989824289834</v>
+      </c>
+      <c r="E13" s="70">
+        <f t="shared" ref="E13:I13" si="0">1.2*(E5/E6)+1.4*(E7/E6)+3.3*(E8/E6)+0.6*(E10/E11)+1*(E12/E6)</f>
+        <v>2.5155921930186746</v>
+      </c>
+      <c r="F13" s="70">
+        <f t="shared" si="0"/>
+        <v>2.354968631591952</v>
+      </c>
+      <c r="G13" s="70">
+        <f t="shared" si="0"/>
+        <v>2.6092006221982045</v>
+      </c>
+      <c r="H13" s="70">
+        <f t="shared" si="0"/>
+        <v>2.3517491261505916</v>
+      </c>
+      <c r="I13" s="70">
+        <f t="shared" si="0"/>
+        <v>2.7185612086574347</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0859CEDD-5CF3-DC4C-BF09-46ED8ABBCA16}">
+  <dimension ref="B2:I13"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="81" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="68" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="62" t="s">
+        <v>224</v>
+      </c>
+      <c r="C4" s="69"/>
+      <c r="D4" s="55">
+        <v>2024</v>
+      </c>
+      <c r="E4" s="55">
+        <v>2023</v>
+      </c>
+      <c r="F4" s="55">
+        <v>2022</v>
+      </c>
+      <c r="G4" s="55">
+        <v>2021</v>
+      </c>
+      <c r="H4" s="55">
+        <v>2020</v>
+      </c>
+      <c r="I4" s="55">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C5" s="71" t="s">
+        <v>231</v>
+      </c>
+      <c r="D5" s="32">
+        <f>'Income Yearly'!C27/'Income Yearly'!C5</f>
+        <v>4.9811381515388511E-2</v>
+      </c>
+      <c r="E5" s="32">
+        <f>'Income Yearly'!D27/'Income Yearly'!D5</f>
+        <v>4.4399235421021449E-2</v>
+      </c>
+      <c r="F5" s="32">
+        <f>'Income Yearly'!E27/'Income Yearly'!E5</f>
+        <v>4.1218232550122275E-2</v>
+      </c>
+      <c r="G5" s="32">
+        <f>'Income Yearly'!F27/'Income Yearly'!F5</f>
+        <v>6.3196936199002088E-2</v>
+      </c>
+      <c r="H5" s="32">
+        <f>'Income Yearly'!G27/'Income Yearly'!G5</f>
+        <v>1.8761397622000145E-2</v>
+      </c>
+      <c r="I5" s="32">
+        <f>'Income Yearly'!H27/'Income Yearly'!H5</f>
+        <v>7.8132912766049802E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C6" s="71" t="s">
+        <v>232</v>
+      </c>
+      <c r="D6" s="32">
+        <f>'Income Yearly'!C5/'Balance Sheet Yearly'!C18</f>
+        <v>0.99932189364074153</v>
+      </c>
+      <c r="E6" s="32">
+        <f>'Income Yearly'!D5/'Balance Sheet Yearly'!D18</f>
+        <v>1.0265999563935142</v>
+      </c>
+      <c r="F6" s="32">
+        <f>'Income Yearly'!E5/'Balance Sheet Yearly'!E18</f>
+        <v>1.0794125171523594</v>
+      </c>
+      <c r="G6" s="32">
+        <f>'Income Yearly'!F5/'Balance Sheet Yearly'!F18</f>
+        <v>0.99995167739831115</v>
+      </c>
+      <c r="H6" s="32">
+        <f>'Income Yearly'!G5/'Balance Sheet Yearly'!G18</f>
+        <v>0.93211580564885699</v>
+      </c>
+      <c r="I6" s="32">
+        <f>'Income Yearly'!H5/'Balance Sheet Yearly'!H18</f>
+        <v>1.2703895005790122</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="C7" s="72" t="s">
+        <v>233</v>
+      </c>
+      <c r="D7" s="34">
+        <f>'Balance Sheet Yearly'!C18/'Balance Sheet Yearly'!C29</f>
+        <v>3.1544848089333621</v>
+      </c>
+      <c r="E7" s="34">
+        <f>'Balance Sheet Yearly'!D18/'Balance Sheet Yearly'!D29</f>
+        <v>3.3403480527445568</v>
+      </c>
+      <c r="F7" s="34">
+        <f>'Balance Sheet Yearly'!E18/'Balance Sheet Yearly'!E29</f>
+        <v>3.4481735434460083</v>
+      </c>
+      <c r="G7" s="34">
+        <f>'Balance Sheet Yearly'!F18/'Balance Sheet Yearly'!F29</f>
+        <v>3.4250662032439592</v>
+      </c>
+      <c r="H7" s="34">
+        <f>'Balance Sheet Yearly'!G18/'Balance Sheet Yearly'!G29</f>
+        <v>4.0195135282864172</v>
+      </c>
+      <c r="I7" s="34">
+        <f>'Balance Sheet Yearly'!H18/'Balance Sheet Yearly'!H29</f>
+        <v>3.0637495072365826</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D8" s="32">
+        <f>D5*D6*D7</f>
+        <v>0.15702269596113405</v>
+      </c>
+      <c r="E8" s="32">
+        <f t="shared" ref="E8:I8" si="0">E5*E6*E7</f>
+        <v>0.15225390984360626</v>
+      </c>
+      <c r="F8" s="32">
+        <f t="shared" si="0"/>
+        <v>0.15341433096756082</v>
+      </c>
+      <c r="G8" s="32">
+        <f t="shared" si="0"/>
+        <v>0.21644323071830521</v>
+      </c>
+      <c r="H8" s="32">
+        <f t="shared" si="0"/>
+        <v>7.0292429625580757E-2</v>
+      </c>
+      <c r="I8" s="32">
+        <f t="shared" si="0"/>
+        <v>3.0410542321338063E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+    </row>
+    <row r="11" spans="2:9" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+    </row>
+    <row r="12" spans="2:9" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+    </row>
+    <row r="13" spans="2:9" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:BN27"/>
   <sheetViews>
@@ -2612,70 +2573,70 @@
       <c r="BN2" s="3"/>
     </row>
     <row r="3" spans="2:66" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="72"/>
-      <c r="O3" s="72"/>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="72"/>
-      <c r="R3" s="72"/>
-      <c r="S3" s="72"/>
-      <c r="T3" s="72"/>
-      <c r="U3" s="72"/>
-      <c r="V3" s="72"/>
-      <c r="W3" s="72"/>
-      <c r="X3" s="72"/>
-      <c r="Y3" s="72"/>
-      <c r="Z3" s="72"/>
-      <c r="AA3" s="72"/>
-      <c r="AB3" s="72"/>
-      <c r="AC3" s="72"/>
-      <c r="AD3" s="72"/>
-      <c r="AE3" s="72"/>
-      <c r="AF3" s="72"/>
-      <c r="AG3" s="72"/>
-      <c r="AH3" s="72"/>
-      <c r="AI3" s="72"/>
-      <c r="AJ3" s="72"/>
-      <c r="AK3" s="72"/>
-      <c r="AL3" s="72"/>
-      <c r="AM3" s="72"/>
-      <c r="AN3" s="72"/>
-      <c r="AO3" s="72"/>
-      <c r="AP3" s="72"/>
-      <c r="AQ3" s="72"/>
-      <c r="AR3" s="72"/>
-      <c r="AS3" s="72"/>
-      <c r="AT3" s="72"/>
-      <c r="AU3" s="72"/>
-      <c r="AV3" s="72"/>
-      <c r="AW3" s="72"/>
-      <c r="AX3" s="72"/>
-      <c r="AY3" s="72"/>
-      <c r="AZ3" s="72"/>
-      <c r="BA3" s="72"/>
-      <c r="BB3" s="72"/>
-      <c r="BC3" s="72"/>
-      <c r="BD3" s="72"/>
-      <c r="BE3" s="72"/>
-      <c r="BF3" s="72"/>
-      <c r="BG3" s="72"/>
-      <c r="BH3" s="72"/>
-      <c r="BI3" s="72"/>
-      <c r="BJ3" s="72"/>
-      <c r="BK3" s="72"/>
-      <c r="BL3" s="72"/>
-      <c r="BM3" s="72"/>
-      <c r="BN3" s="72"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="76"/>
+      <c r="Q3" s="76"/>
+      <c r="R3" s="76"/>
+      <c r="S3" s="76"/>
+      <c r="T3" s="76"/>
+      <c r="U3" s="76"/>
+      <c r="V3" s="76"/>
+      <c r="W3" s="76"/>
+      <c r="X3" s="76"/>
+      <c r="Y3" s="76"/>
+      <c r="Z3" s="76"/>
+      <c r="AA3" s="76"/>
+      <c r="AB3" s="76"/>
+      <c r="AC3" s="76"/>
+      <c r="AD3" s="76"/>
+      <c r="AE3" s="76"/>
+      <c r="AF3" s="76"/>
+      <c r="AG3" s="76"/>
+      <c r="AH3" s="76"/>
+      <c r="AI3" s="76"/>
+      <c r="AJ3" s="76"/>
+      <c r="AK3" s="76"/>
+      <c r="AL3" s="76"/>
+      <c r="AM3" s="76"/>
+      <c r="AN3" s="76"/>
+      <c r="AO3" s="76"/>
+      <c r="AP3" s="76"/>
+      <c r="AQ3" s="76"/>
+      <c r="AR3" s="76"/>
+      <c r="AS3" s="76"/>
+      <c r="AT3" s="76"/>
+      <c r="AU3" s="76"/>
+      <c r="AV3" s="76"/>
+      <c r="AW3" s="76"/>
+      <c r="AX3" s="76"/>
+      <c r="AY3" s="76"/>
+      <c r="AZ3" s="76"/>
+      <c r="BA3" s="76"/>
+      <c r="BB3" s="76"/>
+      <c r="BC3" s="76"/>
+      <c r="BD3" s="76"/>
+      <c r="BE3" s="76"/>
+      <c r="BF3" s="76"/>
+      <c r="BG3" s="76"/>
+      <c r="BH3" s="76"/>
+      <c r="BI3" s="76"/>
+      <c r="BJ3" s="76"/>
+      <c r="BK3" s="76"/>
+      <c r="BL3" s="76"/>
+      <c r="BM3" s="76"/>
+      <c r="BN3" s="76"/>
     </row>
     <row r="4" spans="2:66" s="40" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="64" t="s">
@@ -7413,7 +7374,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:BN33"/>
   <sheetViews>
@@ -7435,72 +7396,72 @@
       </c>
     </row>
     <row r="3" spans="2:66" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="73" t="s">
+      <c r="C3" s="77" t="s">
         <v>172</v>
       </c>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="73"/>
-      <c r="W3" s="73"/>
-      <c r="X3" s="73"/>
-      <c r="Y3" s="73"/>
-      <c r="Z3" s="73"/>
-      <c r="AA3" s="73"/>
-      <c r="AB3" s="73"/>
-      <c r="AC3" s="73"/>
-      <c r="AD3" s="73"/>
-      <c r="AE3" s="73"/>
-      <c r="AF3" s="73"/>
-      <c r="AG3" s="73"/>
-      <c r="AH3" s="73"/>
-      <c r="AI3" s="73"/>
-      <c r="AJ3" s="73"/>
-      <c r="AK3" s="73"/>
-      <c r="AL3" s="73"/>
-      <c r="AM3" s="73"/>
-      <c r="AN3" s="73"/>
-      <c r="AO3" s="73"/>
-      <c r="AP3" s="73"/>
-      <c r="AQ3" s="73"/>
-      <c r="AR3" s="73"/>
-      <c r="AS3" s="73"/>
-      <c r="AT3" s="73"/>
-      <c r="AU3" s="73"/>
-      <c r="AV3" s="73"/>
-      <c r="AW3" s="73"/>
-      <c r="AX3" s="73"/>
-      <c r="AY3" s="73"/>
-      <c r="AZ3" s="73"/>
-      <c r="BA3" s="73"/>
-      <c r="BB3" s="73"/>
-      <c r="BC3" s="73"/>
-      <c r="BD3" s="73"/>
-      <c r="BE3" s="73"/>
-      <c r="BF3" s="73"/>
-      <c r="BG3" s="73"/>
-      <c r="BH3" s="73"/>
-      <c r="BI3" s="73"/>
-      <c r="BJ3" s="73"/>
-      <c r="BK3" s="73"/>
-      <c r="BL3" s="73"/>
-      <c r="BM3" s="73"/>
-      <c r="BN3" s="73"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="77"/>
+      <c r="P3" s="77"/>
+      <c r="Q3" s="77"/>
+      <c r="R3" s="77"/>
+      <c r="S3" s="77"/>
+      <c r="T3" s="77"/>
+      <c r="U3" s="77"/>
+      <c r="V3" s="77"/>
+      <c r="W3" s="77"/>
+      <c r="X3" s="77"/>
+      <c r="Y3" s="77"/>
+      <c r="Z3" s="77"/>
+      <c r="AA3" s="77"/>
+      <c r="AB3" s="77"/>
+      <c r="AC3" s="77"/>
+      <c r="AD3" s="77"/>
+      <c r="AE3" s="77"/>
+      <c r="AF3" s="77"/>
+      <c r="AG3" s="77"/>
+      <c r="AH3" s="77"/>
+      <c r="AI3" s="77"/>
+      <c r="AJ3" s="77"/>
+      <c r="AK3" s="77"/>
+      <c r="AL3" s="77"/>
+      <c r="AM3" s="77"/>
+      <c r="AN3" s="77"/>
+      <c r="AO3" s="77"/>
+      <c r="AP3" s="77"/>
+      <c r="AQ3" s="77"/>
+      <c r="AR3" s="77"/>
+      <c r="AS3" s="77"/>
+      <c r="AT3" s="77"/>
+      <c r="AU3" s="77"/>
+      <c r="AV3" s="77"/>
+      <c r="AW3" s="77"/>
+      <c r="AX3" s="77"/>
+      <c r="AY3" s="77"/>
+      <c r="AZ3" s="77"/>
+      <c r="BA3" s="77"/>
+      <c r="BB3" s="77"/>
+      <c r="BC3" s="77"/>
+      <c r="BD3" s="77"/>
+      <c r="BE3" s="77"/>
+      <c r="BF3" s="77"/>
+      <c r="BG3" s="77"/>
+      <c r="BH3" s="77"/>
+      <c r="BI3" s="77"/>
+      <c r="BJ3" s="77"/>
+      <c r="BK3" s="77"/>
+      <c r="BL3" s="77"/>
+      <c r="BM3" s="77"/>
+      <c r="BN3" s="77"/>
     </row>
     <row r="4" spans="2:66" s="38" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="65" t="s">
@@ -13060,7 +13021,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:BN31"/>
   <sheetViews>
@@ -13095,72 +13056,72 @@
       </c>
     </row>
     <row r="3" spans="2:66" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="73" t="s">
+      <c r="C3" s="77" t="s">
         <v>172</v>
       </c>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="73"/>
-      <c r="W3" s="73"/>
-      <c r="X3" s="73"/>
-      <c r="Y3" s="73"/>
-      <c r="Z3" s="73"/>
-      <c r="AA3" s="73"/>
-      <c r="AB3" s="73"/>
-      <c r="AC3" s="73"/>
-      <c r="AD3" s="73"/>
-      <c r="AE3" s="73"/>
-      <c r="AF3" s="73"/>
-      <c r="AG3" s="73"/>
-      <c r="AH3" s="73"/>
-      <c r="AI3" s="73"/>
-      <c r="AJ3" s="73"/>
-      <c r="AK3" s="73"/>
-      <c r="AL3" s="73"/>
-      <c r="AM3" s="73"/>
-      <c r="AN3" s="73"/>
-      <c r="AO3" s="73"/>
-      <c r="AP3" s="73"/>
-      <c r="AQ3" s="73"/>
-      <c r="AR3" s="73"/>
-      <c r="AS3" s="73"/>
-      <c r="AT3" s="73"/>
-      <c r="AU3" s="73"/>
-      <c r="AV3" s="73"/>
-      <c r="AW3" s="73"/>
-      <c r="AX3" s="73"/>
-      <c r="AY3" s="73"/>
-      <c r="AZ3" s="73"/>
-      <c r="BA3" s="73"/>
-      <c r="BB3" s="73"/>
-      <c r="BC3" s="73"/>
-      <c r="BD3" s="73"/>
-      <c r="BE3" s="73"/>
-      <c r="BF3" s="73"/>
-      <c r="BG3" s="73"/>
-      <c r="BH3" s="73"/>
-      <c r="BI3" s="73"/>
-      <c r="BJ3" s="73"/>
-      <c r="BK3" s="73"/>
-      <c r="BL3" s="73"/>
-      <c r="BM3" s="73"/>
-      <c r="BN3" s="73"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="77"/>
+      <c r="P3" s="77"/>
+      <c r="Q3" s="77"/>
+      <c r="R3" s="77"/>
+      <c r="S3" s="77"/>
+      <c r="T3" s="77"/>
+      <c r="U3" s="77"/>
+      <c r="V3" s="77"/>
+      <c r="W3" s="77"/>
+      <c r="X3" s="77"/>
+      <c r="Y3" s="77"/>
+      <c r="Z3" s="77"/>
+      <c r="AA3" s="77"/>
+      <c r="AB3" s="77"/>
+      <c r="AC3" s="77"/>
+      <c r="AD3" s="77"/>
+      <c r="AE3" s="77"/>
+      <c r="AF3" s="77"/>
+      <c r="AG3" s="77"/>
+      <c r="AH3" s="77"/>
+      <c r="AI3" s="77"/>
+      <c r="AJ3" s="77"/>
+      <c r="AK3" s="77"/>
+      <c r="AL3" s="77"/>
+      <c r="AM3" s="77"/>
+      <c r="AN3" s="77"/>
+      <c r="AO3" s="77"/>
+      <c r="AP3" s="77"/>
+      <c r="AQ3" s="77"/>
+      <c r="AR3" s="77"/>
+      <c r="AS3" s="77"/>
+      <c r="AT3" s="77"/>
+      <c r="AU3" s="77"/>
+      <c r="AV3" s="77"/>
+      <c r="AW3" s="77"/>
+      <c r="AX3" s="77"/>
+      <c r="AY3" s="77"/>
+      <c r="AZ3" s="77"/>
+      <c r="BA3" s="77"/>
+      <c r="BB3" s="77"/>
+      <c r="BC3" s="77"/>
+      <c r="BD3" s="77"/>
+      <c r="BE3" s="77"/>
+      <c r="BF3" s="77"/>
+      <c r="BG3" s="77"/>
+      <c r="BH3" s="77"/>
+      <c r="BI3" s="77"/>
+      <c r="BJ3" s="77"/>
+      <c r="BK3" s="77"/>
+      <c r="BL3" s="77"/>
+      <c r="BM3" s="77"/>
+      <c r="BN3" s="77"/>
     </row>
     <row r="4" spans="2:66" s="38" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="65" t="s">
@@ -18350,7 +18311,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A47BBAD-575C-8646-AB70-71C244F2B3FA}">
   <dimension ref="B2:T34"/>
   <sheetViews>
@@ -18371,24 +18332,24 @@
       </c>
     </row>
     <row r="3" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="74"/>
-      <c r="P3" s="74"/>
-      <c r="Q3" s="74"/>
-      <c r="R3" s="74"/>
-      <c r="S3" s="74"/>
-      <c r="T3" s="74"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="78"/>
+      <c r="Q3" s="78"/>
+      <c r="R3" s="78"/>
+      <c r="S3" s="78"/>
+      <c r="T3" s="78"/>
     </row>
     <row r="4" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="67"/>
@@ -20465,6 +20426,1234 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC6B07E8-C762-8A41-A252-707D4C85F430}">
+  <dimension ref="B3:B46"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="85"/>
+    <col min="2" max="2" width="86" style="85" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="85"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="B3" s="87" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B5" s="86" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" ht="85" x14ac:dyDescent="0.2">
+      <c r="B7" s="85" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="B10" s="84" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="B11" s="84" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="B12" s="84" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B14" s="86" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="B16" s="85" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="B20" s="84" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="B21" s="84" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="B22" s="84" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B24" s="86" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="B26" s="84" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="B27" s="84" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="B28" s="84" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="B29" s="84" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B31" s="86" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="B33" s="85" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B35" s="84" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="B37" s="84" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="B38" s="84" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B40" s="86" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="B42" s="85" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="B44" s="86" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="B46" s="85" t="s">
+        <v>257</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:N28"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="8.83203125" style="6"/>
+    <col min="2" max="2" width="40.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="12.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="1.83203125" style="6" customWidth="1"/>
+    <col min="10" max="10" width="9" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.83203125" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="59" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="J3" s="42"/>
+    </row>
+    <row r="4" spans="2:14" s="38" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="58" t="s">
+        <v>203</v>
+      </c>
+      <c r="C4" s="55">
+        <v>2024</v>
+      </c>
+      <c r="D4" s="55">
+        <v>2023</v>
+      </c>
+      <c r="E4" s="55">
+        <v>2022</v>
+      </c>
+      <c r="F4" s="55">
+        <v>2021</v>
+      </c>
+      <c r="G4" s="55">
+        <v>2020</v>
+      </c>
+      <c r="H4" s="55">
+        <v>2019</v>
+      </c>
+      <c r="J4" s="56" t="s">
+        <v>198</v>
+      </c>
+      <c r="K4" s="56" t="s">
+        <v>199</v>
+      </c>
+      <c r="L4" s="56" t="s">
+        <v>200</v>
+      </c>
+      <c r="M4" s="56" t="s">
+        <v>201</v>
+      </c>
+      <c r="N4" s="56" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" s="13" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="15">
+        <v>86948000000</v>
+      </c>
+      <c r="D5" s="16">
+        <v>89461000000</v>
+      </c>
+      <c r="E5" s="15">
+        <v>92823000000</v>
+      </c>
+      <c r="F5" s="15">
+        <v>82773000000</v>
+      </c>
+      <c r="G5" s="15">
+        <v>68545000000</v>
+      </c>
+      <c r="H5" s="15">
+        <v>69113000000</v>
+      </c>
+      <c r="J5" s="42">
+        <f>C5/D5-1</f>
+        <v>-2.8090452823017809E-2</v>
+      </c>
+      <c r="K5" s="42">
+        <f t="shared" ref="K5:N5" si="0">D5/E5-1</f>
+        <v>-3.6219471467201059E-2</v>
+      </c>
+      <c r="L5" s="42">
+        <f t="shared" si="0"/>
+        <v>0.12141640389982244</v>
+      </c>
+      <c r="M5" s="42">
+        <f t="shared" si="0"/>
+        <v>0.20757166824713691</v>
+      </c>
+      <c r="N5" s="42">
+        <f t="shared" si="0"/>
+        <v>-8.2184248983548924E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="21">
+        <v>39058000000</v>
+      </c>
+      <c r="D6" s="22">
+        <v>40053000000</v>
+      </c>
+      <c r="E6" s="21">
+        <v>42009000000</v>
+      </c>
+      <c r="F6" s="21">
+        <v>35310000000</v>
+      </c>
+      <c r="G6" s="21">
+        <v>32586000000</v>
+      </c>
+      <c r="H6" s="21">
+        <v>48890000000</v>
+      </c>
+      <c r="J6" s="42">
+        <f t="shared" ref="J6:J27" si="1">C6/D6-1</f>
+        <v>-2.4842084238384188E-2</v>
+      </c>
+      <c r="K6" s="42">
+        <f t="shared" ref="K6:K27" si="2">D6/E6-1</f>
+        <v>-4.6561451117617669E-2</v>
+      </c>
+      <c r="L6" s="42">
+        <f t="shared" ref="L6:L27" si="3">E6/F6-1</f>
+        <v>0.18971962616822435</v>
+      </c>
+      <c r="M6" s="42">
+        <f t="shared" ref="M6:M27" si="4">F6/G6-1</f>
+        <v>8.3594181550359137E-2</v>
+      </c>
+      <c r="N6" s="42">
+        <f t="shared" ref="N6:N27" si="5">G6/H6-1</f>
+        <v>-0.33348332992431995</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" s="13" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="15">
+        <f>C5-C6</f>
+        <v>47890000000</v>
+      </c>
+      <c r="D7" s="16">
+        <f t="shared" ref="D7:H7" si="6">D5-D6</f>
+        <v>49408000000</v>
+      </c>
+      <c r="E7" s="15">
+        <f t="shared" si="6"/>
+        <v>50814000000</v>
+      </c>
+      <c r="F7" s="15">
+        <f t="shared" si="6"/>
+        <v>47463000000</v>
+      </c>
+      <c r="G7" s="15">
+        <f t="shared" si="6"/>
+        <v>35959000000</v>
+      </c>
+      <c r="H7" s="15">
+        <f t="shared" si="6"/>
+        <v>20223000000</v>
+      </c>
+      <c r="J7" s="42">
+        <f t="shared" si="1"/>
+        <v>-3.0723769430051839E-2</v>
+      </c>
+      <c r="K7" s="42">
+        <f t="shared" si="2"/>
+        <v>-2.7669539890581296E-2</v>
+      </c>
+      <c r="L7" s="42">
+        <f t="shared" si="3"/>
+        <v>7.0602363946653091E-2</v>
+      </c>
+      <c r="M7" s="42">
+        <f t="shared" si="4"/>
+        <v>0.31991990878500509</v>
+      </c>
+      <c r="N7" s="42">
+        <f t="shared" si="5"/>
+        <v>0.77812391831083416</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="10">
+        <v>584000000</v>
+      </c>
+      <c r="D8" s="12">
+        <v>617000000</v>
+      </c>
+      <c r="E8" s="10">
+        <v>660000000</v>
+      </c>
+      <c r="F8" s="10">
+        <v>628000000</v>
+      </c>
+      <c r="G8" s="10">
+        <v>595000000</v>
+      </c>
+      <c r="H8" s="10">
+        <v>3739000000</v>
+      </c>
+      <c r="J8" s="42">
+        <f t="shared" si="1"/>
+        <v>-5.3484602917342028E-2</v>
+      </c>
+      <c r="K8" s="42">
+        <f t="shared" si="2"/>
+        <v>-6.5151515151515182E-2</v>
+      </c>
+      <c r="L8" s="42">
+        <f t="shared" si="3"/>
+        <v>5.0955414012738842E-2</v>
+      </c>
+      <c r="M8" s="42">
+        <f t="shared" si="4"/>
+        <v>5.5462184873949605E-2</v>
+      </c>
+      <c r="N8" s="42">
+        <f t="shared" si="5"/>
+        <v>-0.8408665418561112</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="10">
+        <v>0</v>
+      </c>
+      <c r="D9" s="12">
+        <v>0</v>
+      </c>
+      <c r="E9" s="10">
+        <v>0</v>
+      </c>
+      <c r="F9" s="10">
+        <v>0</v>
+      </c>
+      <c r="G9" s="10">
+        <v>0</v>
+      </c>
+      <c r="H9" s="10">
+        <v>0</v>
+      </c>
+      <c r="J9" s="42">
+        <v>0</v>
+      </c>
+      <c r="K9" s="42">
+        <v>0</v>
+      </c>
+      <c r="L9" s="42">
+        <v>0</v>
+      </c>
+      <c r="M9" s="42">
+        <v>0</v>
+      </c>
+      <c r="N9" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="10">
+        <v>13893000000</v>
+      </c>
+      <c r="D10" s="12">
+        <v>15346000000</v>
+      </c>
+      <c r="E10" s="10">
+        <v>14785000000</v>
+      </c>
+      <c r="F10" s="10">
+        <v>13503000000</v>
+      </c>
+      <c r="G10" s="10">
+        <v>12353000000</v>
+      </c>
+      <c r="H10" s="10">
+        <v>14537000000</v>
+      </c>
+      <c r="J10" s="42">
+        <f t="shared" si="1"/>
+        <v>-9.4682653460185118E-2</v>
+      </c>
+      <c r="K10" s="42">
+        <f t="shared" si="2"/>
+        <v>3.794386202232003E-2</v>
+      </c>
+      <c r="L10" s="42">
+        <f t="shared" si="3"/>
+        <v>9.4941864770791584E-2</v>
+      </c>
+      <c r="M10" s="42">
+        <f t="shared" si="4"/>
+        <v>9.3094794786691581E-2</v>
+      </c>
+      <c r="N10" s="42">
+        <f t="shared" si="5"/>
+        <v>-0.15023732544541513</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" s="13" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="24">
+        <v>5559000000</v>
+      </c>
+      <c r="D11" s="25">
+        <v>4912000000</v>
+      </c>
+      <c r="E11" s="24">
+        <v>6245000000</v>
+      </c>
+      <c r="F11" s="24">
+        <v>5857000000</v>
+      </c>
+      <c r="G11" s="24">
+        <v>2417000000</v>
+      </c>
+      <c r="H11" s="24">
+        <v>4466000000</v>
+      </c>
+      <c r="J11" s="42">
+        <f t="shared" si="1"/>
+        <v>0.1317182410423452</v>
+      </c>
+      <c r="K11" s="42">
+        <f t="shared" si="2"/>
+        <v>-0.21345076060848678</v>
+      </c>
+      <c r="L11" s="42">
+        <f t="shared" si="3"/>
+        <v>6.6245518183370322E-2</v>
+      </c>
+      <c r="M11" s="42">
+        <f t="shared" si="4"/>
+        <v>1.4232519652461728</v>
+      </c>
+      <c r="N11" s="42">
+        <f t="shared" si="5"/>
+        <v>-0.45879982086878635</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="10">
+        <v>370000000</v>
+      </c>
+      <c r="D12" s="12">
+        <v>198000000</v>
+      </c>
+      <c r="E12" s="10">
+        <v>53000000</v>
+      </c>
+      <c r="F12" s="10">
+        <v>52000000</v>
+      </c>
+      <c r="G12" s="10">
+        <v>55000000</v>
+      </c>
+      <c r="H12" s="10">
+        <v>59000000</v>
+      </c>
+      <c r="J12" s="42">
+        <f t="shared" si="1"/>
+        <v>0.86868686868686873</v>
+      </c>
+      <c r="K12" s="42">
+        <f t="shared" si="2"/>
+        <v>2.7358490566037736</v>
+      </c>
+      <c r="L12" s="42">
+        <f t="shared" si="3"/>
+        <v>1.9230769230769162E-2</v>
+      </c>
+      <c r="M12" s="42">
+        <f t="shared" si="4"/>
+        <v>-5.4545454545454564E-2</v>
+      </c>
+      <c r="N12" s="42">
+        <f t="shared" si="5"/>
+        <v>-6.7796610169491567E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="10">
+        <v>-745000000</v>
+      </c>
+      <c r="D13" s="12">
+        <v>-694000000</v>
+      </c>
+      <c r="E13" s="10">
+        <v>-689000000</v>
+      </c>
+      <c r="F13" s="10">
+        <v>-793000000</v>
+      </c>
+      <c r="G13" s="10">
+        <v>-672000000</v>
+      </c>
+      <c r="H13" s="10">
+        <v>-588000000</v>
+      </c>
+      <c r="J13" s="42">
+        <f t="shared" si="1"/>
+        <v>7.3487031700288252E-2</v>
+      </c>
+      <c r="K13" s="42">
+        <f t="shared" si="2"/>
+        <v>7.2568940493469292E-3</v>
+      </c>
+      <c r="L13" s="42">
+        <f t="shared" si="3"/>
+        <v>-0.13114754098360659</v>
+      </c>
+      <c r="M13" s="42">
+        <f t="shared" si="4"/>
+        <v>0.18005952380952372</v>
+      </c>
+      <c r="N13" s="42">
+        <f t="shared" si="5"/>
+        <v>0.14285714285714279</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="10">
+        <v>370000000</v>
+      </c>
+      <c r="D14" s="12">
+        <v>496000000</v>
+      </c>
+      <c r="E14" s="10">
+        <v>53000000</v>
+      </c>
+      <c r="F14" s="10">
+        <v>741000000</v>
+      </c>
+      <c r="G14" s="10">
+        <v>55000000</v>
+      </c>
+      <c r="H14" s="10">
+        <v>59000000</v>
+      </c>
+      <c r="J14" s="42">
+        <f t="shared" si="1"/>
+        <v>-0.25403225806451613</v>
+      </c>
+      <c r="K14" s="42">
+        <f t="shared" si="2"/>
+        <v>8.3584905660377355</v>
+      </c>
+      <c r="L14" s="42">
+        <f t="shared" si="3"/>
+        <v>-0.92847503373819162</v>
+      </c>
+      <c r="M14" s="42">
+        <f t="shared" si="4"/>
+        <v>12.472727272727273</v>
+      </c>
+      <c r="N14" s="42">
+        <f t="shared" si="5"/>
+        <v>-6.7796610169491567E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="10">
+        <v>745000000</v>
+      </c>
+      <c r="D15" s="12">
+        <v>694000000</v>
+      </c>
+      <c r="E15" s="10">
+        <v>689000000</v>
+      </c>
+      <c r="F15" s="10">
+        <v>793000000</v>
+      </c>
+      <c r="G15" s="10">
+        <v>672000000</v>
+      </c>
+      <c r="H15" s="10">
+        <v>588000000</v>
+      </c>
+      <c r="J15" s="42">
+        <f t="shared" si="1"/>
+        <v>7.3487031700288252E-2</v>
+      </c>
+      <c r="K15" s="42">
+        <f t="shared" si="2"/>
+        <v>7.2568940493469292E-3</v>
+      </c>
+      <c r="L15" s="42">
+        <f t="shared" si="3"/>
+        <v>-0.13114754098360659</v>
+      </c>
+      <c r="M15" s="42">
+        <f t="shared" si="4"/>
+        <v>0.18005952380952372</v>
+      </c>
+      <c r="N15" s="42">
+        <f t="shared" si="5"/>
+        <v>0.14285714285714279</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="10">
+        <v>87693000000</v>
+      </c>
+      <c r="D16" s="12">
+        <v>90155000000</v>
+      </c>
+      <c r="E16" s="10">
+        <v>93512000000</v>
+      </c>
+      <c r="F16" s="10">
+        <v>83566000000</v>
+      </c>
+      <c r="G16" s="10">
+        <v>69217000000</v>
+      </c>
+      <c r="H16" s="10">
+        <v>69701000000</v>
+      </c>
+      <c r="J16" s="42">
+        <f t="shared" si="1"/>
+        <v>-2.7308524208307872E-2</v>
+      </c>
+      <c r="K16" s="42">
+        <f t="shared" si="2"/>
+        <v>-3.5899135939772453E-2</v>
+      </c>
+      <c r="L16" s="42">
+        <f t="shared" si="3"/>
+        <v>0.11901969700595938</v>
+      </c>
+      <c r="M16" s="42">
+        <f t="shared" si="4"/>
+        <v>0.20730456390771046</v>
+      </c>
+      <c r="N16" s="42">
+        <f t="shared" si="5"/>
+        <v>-6.9439462848452926E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="10">
+        <v>-70000000</v>
+      </c>
+      <c r="D17" s="12">
+        <v>-107000000</v>
+      </c>
+      <c r="E17" s="10">
+        <v>13000000</v>
+      </c>
+      <c r="F17" s="10">
+        <v>-32000000</v>
+      </c>
+      <c r="G17" s="10">
+        <v>-9000000</v>
+      </c>
+      <c r="H17" s="10">
+        <v>-31000000</v>
+      </c>
+      <c r="J17" s="42">
+        <f t="shared" si="1"/>
+        <v>-0.34579439252336452</v>
+      </c>
+      <c r="K17" s="42">
+        <f t="shared" si="2"/>
+        <v>-9.2307692307692299</v>
+      </c>
+      <c r="L17" s="42">
+        <f t="shared" si="3"/>
+        <v>-1.40625</v>
+      </c>
+      <c r="M17" s="42">
+        <f t="shared" si="4"/>
+        <v>2.5555555555555554</v>
+      </c>
+      <c r="N17" s="42">
+        <f t="shared" si="5"/>
+        <v>-0.70967741935483875</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="10">
+        <v>0</v>
+      </c>
+      <c r="D18" s="12">
+        <v>0</v>
+      </c>
+      <c r="E18" s="10">
+        <v>0</v>
+      </c>
+      <c r="F18" s="10">
+        <v>0</v>
+      </c>
+      <c r="G18" s="10">
+        <v>0</v>
+      </c>
+      <c r="H18" s="10">
+        <v>0</v>
+      </c>
+      <c r="J18" s="42">
+        <v>0</v>
+      </c>
+      <c r="K18" s="42">
+        <v>0</v>
+      </c>
+      <c r="L18" s="42">
+        <v>0</v>
+      </c>
+      <c r="M18" s="42">
+        <v>0</v>
+      </c>
+      <c r="N18" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="10">
+        <v>77000000</v>
+      </c>
+      <c r="D19" s="12">
+        <v>88000000</v>
+      </c>
+      <c r="E19" s="10">
+        <v>78000000</v>
+      </c>
+      <c r="F19" s="10">
+        <v>72000000</v>
+      </c>
+      <c r="G19" s="10">
+        <v>84000000</v>
+      </c>
+      <c r="H19" s="10">
+        <v>82000000</v>
+      </c>
+      <c r="J19" s="42">
+        <f t="shared" si="1"/>
+        <v>-0.125</v>
+      </c>
+      <c r="K19" s="42">
+        <f t="shared" si="2"/>
+        <v>0.12820512820512819</v>
+      </c>
+      <c r="L19" s="42">
+        <f t="shared" si="3"/>
+        <v>8.3333333333333259E-2</v>
+      </c>
+      <c r="M19" s="42">
+        <f t="shared" si="4"/>
+        <v>-0.1428571428571429</v>
+      </c>
+      <c r="N19" s="42">
+        <f t="shared" si="5"/>
+        <v>2.4390243902439046E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" s="13" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="24">
+        <v>5836000000</v>
+      </c>
+      <c r="D20" s="25">
+        <v>5363000000</v>
+      </c>
+      <c r="E20" s="24">
+        <v>4896000000</v>
+      </c>
+      <c r="F20" s="24">
+        <v>6674000000</v>
+      </c>
+      <c r="G20" s="24">
+        <v>1669000000</v>
+      </c>
+      <c r="H20" s="24">
+        <v>655000000</v>
+      </c>
+      <c r="J20" s="42">
+        <f t="shared" si="1"/>
+        <v>8.8196904717508851E-2</v>
+      </c>
+      <c r="K20" s="42">
+        <f t="shared" si="2"/>
+        <v>9.5383986928104569E-2</v>
+      </c>
+      <c r="L20" s="42">
+        <f t="shared" si="3"/>
+        <v>-0.2664069523524123</v>
+      </c>
+      <c r="M20" s="42">
+        <f t="shared" si="4"/>
+        <v>2.9988016776512882</v>
+      </c>
+      <c r="N20" s="42">
+        <f t="shared" si="5"/>
+        <v>1.5480916030534351</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="10">
+        <v>1505000000</v>
+      </c>
+      <c r="D21" s="12">
+        <v>1391000000</v>
+      </c>
+      <c r="E21" s="10">
+        <v>1070000000</v>
+      </c>
+      <c r="F21" s="10">
+        <v>1443000000</v>
+      </c>
+      <c r="G21" s="10">
+        <v>383000000</v>
+      </c>
+      <c r="H21" s="10">
+        <v>115000000</v>
+      </c>
+      <c r="J21" s="42">
+        <f t="shared" si="1"/>
+        <v>8.1955427749820231E-2</v>
+      </c>
+      <c r="K21" s="42">
+        <f t="shared" si="2"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="L21" s="42">
+        <f t="shared" si="3"/>
+        <v>-0.25848925848925852</v>
+      </c>
+      <c r="M21" s="42">
+        <f t="shared" si="4"/>
+        <v>2.7676240208877285</v>
+      </c>
+      <c r="N21" s="42">
+        <f t="shared" si="5"/>
+        <v>2.3304347826086955</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="10">
+        <v>745000000</v>
+      </c>
+      <c r="D22" s="12">
+        <v>694000000</v>
+      </c>
+      <c r="E22" s="10">
+        <v>689000000</v>
+      </c>
+      <c r="F22" s="10">
+        <v>1186000000</v>
+      </c>
+      <c r="G22" s="10">
+        <v>672000000</v>
+      </c>
+      <c r="H22" s="10">
+        <v>588000000</v>
+      </c>
+      <c r="J22" s="42">
+        <f t="shared" si="1"/>
+        <v>7.3487031700288252E-2</v>
+      </c>
+      <c r="K22" s="42">
+        <f t="shared" si="2"/>
+        <v>7.2568940493469292E-3</v>
+      </c>
+      <c r="L22" s="42">
+        <f t="shared" si="3"/>
+        <v>-0.41905564924114669</v>
+      </c>
+      <c r="M22" s="42">
+        <f t="shared" si="4"/>
+        <v>0.76488095238095233</v>
+      </c>
+      <c r="N22" s="42">
+        <f t="shared" si="5"/>
+        <v>0.14285714285714279</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" s="13" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="24">
+        <v>4331000000</v>
+      </c>
+      <c r="D23" s="25">
+        <v>3972000000</v>
+      </c>
+      <c r="E23" s="24">
+        <v>3826000000</v>
+      </c>
+      <c r="F23" s="24">
+        <v>5231000000</v>
+      </c>
+      <c r="G23" s="24">
+        <v>1286000000</v>
+      </c>
+      <c r="H23" s="24">
+        <v>540000000</v>
+      </c>
+      <c r="J23" s="42">
+        <f t="shared" si="1"/>
+        <v>9.0382678751258716E-2</v>
+      </c>
+      <c r="K23" s="42">
+        <f t="shared" si="2"/>
+        <v>3.8159958180867815E-2</v>
+      </c>
+      <c r="L23" s="42">
+        <f t="shared" si="3"/>
+        <v>-0.26859109156948957</v>
+      </c>
+      <c r="M23" s="42">
+        <f t="shared" si="4"/>
+        <v>3.0676516329704508</v>
+      </c>
+      <c r="N23" s="42">
+        <f t="shared" si="5"/>
+        <v>1.3814814814814813</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="10">
+        <v>4299000000</v>
+      </c>
+      <c r="D24" s="12">
+        <v>3748000000</v>
+      </c>
+      <c r="E24" s="10">
+        <v>3455000000</v>
+      </c>
+      <c r="F24" s="10">
+        <v>5646000000</v>
+      </c>
+      <c r="G24" s="10">
+        <v>953000000</v>
+      </c>
+      <c r="H24" s="10">
+        <v>253000000</v>
+      </c>
+      <c r="J24" s="42">
+        <f t="shared" si="1"/>
+        <v>0.14701173959445035</v>
+      </c>
+      <c r="K24" s="42">
+        <f t="shared" si="2"/>
+        <v>8.4804630969609329E-2</v>
+      </c>
+      <c r="L24" s="42">
+        <f t="shared" si="3"/>
+        <v>-0.38806234502302517</v>
+      </c>
+      <c r="M24" s="42">
+        <f t="shared" si="4"/>
+        <v>4.9244491080797479</v>
+      </c>
+      <c r="N24" s="42">
+        <f t="shared" si="5"/>
+        <v>2.766798418972332</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" s="13" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="15">
+        <v>6581000000</v>
+      </c>
+      <c r="D25" s="16">
+        <v>6057000000</v>
+      </c>
+      <c r="E25" s="15">
+        <v>5585000000</v>
+      </c>
+      <c r="F25" s="15">
+        <v>7467000000</v>
+      </c>
+      <c r="G25" s="15">
+        <v>2341000000</v>
+      </c>
+      <c r="H25" s="15">
+        <v>1243000000</v>
+      </c>
+      <c r="J25" s="42">
+        <f t="shared" si="1"/>
+        <v>8.6511474327224613E-2</v>
+      </c>
+      <c r="K25" s="42">
+        <f t="shared" si="2"/>
+        <v>8.4512085944494109E-2</v>
+      </c>
+      <c r="L25" s="42">
+        <f t="shared" si="3"/>
+        <v>-0.25204231953930634</v>
+      </c>
+      <c r="M25" s="42">
+        <f t="shared" si="4"/>
+        <v>2.1896625373771892</v>
+      </c>
+      <c r="N25" s="42">
+        <f t="shared" si="5"/>
+        <v>0.88334674175382144</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" s="13" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="15">
+        <v>6658000000</v>
+      </c>
+      <c r="D26" s="16">
+        <v>6145000000</v>
+      </c>
+      <c r="E26" s="15">
+        <v>5663000000</v>
+      </c>
+      <c r="F26" s="15">
+        <v>7539000000</v>
+      </c>
+      <c r="G26" s="15">
+        <v>2425000000</v>
+      </c>
+      <c r="H26" s="15">
+        <v>1325000000</v>
+      </c>
+      <c r="J26" s="42">
+        <f t="shared" si="1"/>
+        <v>8.3482506102522391E-2</v>
+      </c>
+      <c r="K26" s="42">
+        <f t="shared" si="2"/>
+        <v>8.5113897227617974E-2</v>
+      </c>
+      <c r="L26" s="42">
+        <f t="shared" si="3"/>
+        <v>-0.24883936861652745</v>
+      </c>
+      <c r="M26" s="42">
+        <f t="shared" si="4"/>
+        <v>2.1088659793814433</v>
+      </c>
+      <c r="N26" s="42">
+        <f t="shared" si="5"/>
+        <v>0.83018867924528306</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" s="13" customFormat="1" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="51">
+        <v>4331000000</v>
+      </c>
+      <c r="D27" s="52">
+        <v>3972000000</v>
+      </c>
+      <c r="E27" s="51">
+        <v>3826000000</v>
+      </c>
+      <c r="F27" s="51">
+        <v>5231000000</v>
+      </c>
+      <c r="G27" s="51">
+        <v>1286000000</v>
+      </c>
+      <c r="H27" s="51">
+        <v>540000000</v>
+      </c>
+      <c r="J27" s="42">
+        <f t="shared" si="1"/>
+        <v>9.0382678751258716E-2</v>
+      </c>
+      <c r="K27" s="42">
+        <f t="shared" si="2"/>
+        <v>3.8159958180867815E-2</v>
+      </c>
+      <c r="L27" s="42">
+        <f t="shared" si="3"/>
+        <v>-0.26859109156948957</v>
+      </c>
+      <c r="M27" s="42">
+        <f t="shared" si="4"/>
+        <v>3.0676516329704508</v>
+      </c>
+      <c r="N27" s="42">
+        <f t="shared" si="5"/>
+        <v>1.3814814814814813</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" ht="16" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="C28" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C3:H3"/>
+  </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <conditionalFormatting sqref="J5:N27">
+    <cfRule type="iconSet" priority="1">
+      <iconSet>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0.1"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:N33"/>
   <sheetViews>
@@ -20491,12 +21680,12 @@
       </c>
     </row>
     <row r="3" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
     </row>
     <row r="4" spans="2:14" s="38" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="58" t="s">
@@ -21795,11 +22984,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:N31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="86" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="86" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -21824,12 +23013,12 @@
       </c>
     </row>
     <row r="3" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
     </row>
     <row r="4" spans="2:14" s="38" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="58" t="s">
@@ -23008,7 +24197,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50BB8992-D811-5D4B-A595-3DBE432328D0}">
   <dimension ref="B2:H34"/>
   <sheetViews>
@@ -23032,11 +24221,11 @@
       </c>
     </row>
     <row r="3" spans="2:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
     </row>
     <row r="4" spans="2:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C4" s="39">
@@ -23870,7 +25059,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1FDD38D-0BB3-D74A-A202-1B8A8D2F00E8}">
   <dimension ref="B2:G30"/>
   <sheetViews>
@@ -23892,11 +25081,11 @@
       </c>
     </row>
     <row r="3" spans="2:7" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
     </row>
     <row r="4" spans="2:7" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="57"/>
@@ -24449,7 +25638,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F605B2E1-C359-D44A-A30F-EF96DD1C35AA}">
   <dimension ref="B2:L33"/>
   <sheetViews>
@@ -25177,7 +26366,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B78CA45-AD9E-D748-9D7D-581B17671AF3}">
   <dimension ref="B2:E97"/>
   <sheetViews>
@@ -25831,529 +27020,4 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{373F68BB-5F05-4241-9EAB-37EA7DDB7ADF}">
-  <dimension ref="B2:I15"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScale="125" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="2" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.6640625" style="1" customWidth="1"/>
-    <col min="4" max="9" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="68" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="62" t="s">
-        <v>224</v>
-      </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="55">
-        <v>2024</v>
-      </c>
-      <c r="E4" s="55">
-        <v>2023</v>
-      </c>
-      <c r="F4" s="55">
-        <v>2022</v>
-      </c>
-      <c r="G4" s="55">
-        <v>2021</v>
-      </c>
-      <c r="H4" s="55">
-        <v>2020</v>
-      </c>
-      <c r="I4" s="55">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D5" s="45">
-        <f>'Balance Sheet Yearly'!C5-'Balance Sheet Yearly'!C19</f>
-        <v>4852000000</v>
-      </c>
-      <c r="E5" s="45">
-        <f>'Balance Sheet Yearly'!D5-'Balance Sheet Yearly'!D19</f>
-        <v>5024000000</v>
-      </c>
-      <c r="F5" s="45">
-        <f>'Balance Sheet Yearly'!E5-'Balance Sheet Yearly'!E19</f>
-        <v>6091000000</v>
-      </c>
-      <c r="G5" s="45">
-        <f>'Balance Sheet Yearly'!F5-'Balance Sheet Yearly'!F19</f>
-        <v>6920000000</v>
-      </c>
-      <c r="H5" s="45">
-        <f>'Balance Sheet Yearly'!G5-'Balance Sheet Yearly'!G19</f>
-        <v>6039000000</v>
-      </c>
-      <c r="I5" s="45">
-        <f>'Balance Sheet Yearly'!H5-'Balance Sheet Yearly'!H19</f>
-        <v>4073000000</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D6" s="45">
-        <f>'Balance Sheet Yearly'!C18</f>
-        <v>87007000000</v>
-      </c>
-      <c r="E6" s="45">
-        <f>'Balance Sheet Yearly'!D18</f>
-        <v>87143000000</v>
-      </c>
-      <c r="F6" s="45">
-        <f>'Balance Sheet Yearly'!E18</f>
-        <v>85994000000</v>
-      </c>
-      <c r="G6" s="45">
-        <f>'Balance Sheet Yearly'!F18</f>
-        <v>82777000000</v>
-      </c>
-      <c r="H6" s="45">
-        <f>'Balance Sheet Yearly'!G18</f>
-        <v>73537000000</v>
-      </c>
-      <c r="I6" s="45">
-        <f>'Balance Sheet Yearly'!H18</f>
-        <v>54403000000</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="D7" s="45">
-        <f>'Balance Sheet Yearly'!C31</f>
-        <v>38649000000</v>
-      </c>
-      <c r="E7" s="45">
-        <f>'Balance Sheet Yearly'!D31</f>
-        <v>35259000000</v>
-      </c>
-      <c r="F7" s="45">
-        <f>'Balance Sheet Yearly'!E31</f>
-        <v>32782000000</v>
-      </c>
-      <c r="G7" s="45">
-        <f>'Balance Sheet Yearly'!F31</f>
-        <v>29817000000</v>
-      </c>
-      <c r="H7" s="45">
-        <f>'Balance Sheet Yearly'!G31</f>
-        <v>25216000000</v>
-      </c>
-      <c r="I7" s="45">
-        <f>'Balance Sheet Yearly'!H31</f>
-        <v>24648000000</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="45">
-        <f>'Income Yearly'!C25</f>
-        <v>6581000000</v>
-      </c>
-      <c r="E8" s="45">
-        <f>'Income Yearly'!D25</f>
-        <v>6057000000</v>
-      </c>
-      <c r="F8" s="45">
-        <f>'Income Yearly'!E25</f>
-        <v>5585000000</v>
-      </c>
-      <c r="G8" s="45">
-        <f>'Income Yearly'!F25</f>
-        <v>7467000000</v>
-      </c>
-      <c r="H8" s="45">
-        <f>'Income Yearly'!G25</f>
-        <v>2341000000</v>
-      </c>
-      <c r="I8" s="45">
-        <f>'Income Yearly'!H25</f>
-        <v>1243000000</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D9" s="1">
-        <v>288.42</v>
-      </c>
-      <c r="E9" s="1">
-        <v>252.97</v>
-      </c>
-      <c r="F9" s="1">
-        <v>173.2</v>
-      </c>
-      <c r="G9" s="1">
-        <v>258.64</v>
-      </c>
-      <c r="H9" s="1">
-        <v>259.62</v>
-      </c>
-      <c r="I9" s="1">
-        <v>151.21</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D10" s="45">
-        <f>D9*'Balance Sheet Yearly'!C33</f>
-        <v>70662900000</v>
-      </c>
-      <c r="E10" s="45">
-        <f>E9*'Balance Sheet Yearly'!D33</f>
-        <v>63495470000</v>
-      </c>
-      <c r="F10" s="45">
-        <f>F9*'Balance Sheet Yearly'!E33</f>
-        <v>45032000000</v>
-      </c>
-      <c r="G10" s="45">
-        <f>G9*'Balance Sheet Yearly'!F33</f>
-        <v>69056880000</v>
-      </c>
-      <c r="H10" s="45">
-        <f>H9*'Balance Sheet Yearly'!G33</f>
-        <v>67760820000</v>
-      </c>
-      <c r="I10" s="45">
-        <f>I9*'Balance Sheet Yearly'!H33</f>
-        <v>39617020000</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="D11" s="45">
-        <f>'Balance Sheet Yearly'!C28</f>
-        <v>59425000000</v>
-      </c>
-      <c r="E11" s="45">
-        <f>'Balance Sheet Yearly'!D28</f>
-        <v>61055000000</v>
-      </c>
-      <c r="F11" s="45">
-        <f>'Balance Sheet Yearly'!E28</f>
-        <v>61055000000</v>
-      </c>
-      <c r="G11" s="45">
-        <f>'Balance Sheet Yearly'!F28</f>
-        <v>58609000000</v>
-      </c>
-      <c r="H11" s="45">
-        <f>'Balance Sheet Yearly'!G28</f>
-        <v>55242000000</v>
-      </c>
-      <c r="I11" s="45">
-        <f>'Balance Sheet Yearly'!H28</f>
-        <v>36646000000</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="33" t="s">
-        <v>222</v>
-      </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="37">
-        <f>'Income Yearly'!C5</f>
-        <v>86948000000</v>
-      </c>
-      <c r="E12" s="37">
-        <f>'Income Yearly'!D5</f>
-        <v>89461000000</v>
-      </c>
-      <c r="F12" s="37">
-        <f>'Income Yearly'!E5</f>
-        <v>92823000000</v>
-      </c>
-      <c r="G12" s="37">
-        <f>'Income Yearly'!F5</f>
-        <v>82773000000</v>
-      </c>
-      <c r="H12" s="37">
-        <f>'Income Yearly'!G5</f>
-        <v>68545000000</v>
-      </c>
-      <c r="I12" s="37">
-        <f>'Income Yearly'!H5</f>
-        <v>69113000000</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="76">
-        <f>1.2*(D5/D6)+1.4*(D7/D6)+3.3*(D8/D6)+0.6*(D10/D11)+1*(D12/D6)</f>
-        <v>2.6511989824289834</v>
-      </c>
-      <c r="E13" s="76">
-        <f t="shared" ref="E13:I13" si="0">1.2*(E5/E6)+1.4*(E7/E6)+3.3*(E8/E6)+0.6*(E10/E11)+1*(E12/E6)</f>
-        <v>2.5155921930186746</v>
-      </c>
-      <c r="F13" s="76">
-        <f t="shared" si="0"/>
-        <v>2.354968631591952</v>
-      </c>
-      <c r="G13" s="76">
-        <f t="shared" si="0"/>
-        <v>2.6092006221982045</v>
-      </c>
-      <c r="H13" s="76">
-        <f t="shared" si="0"/>
-        <v>2.3517491261505916</v>
-      </c>
-      <c r="I13" s="76">
-        <f t="shared" si="0"/>
-        <v>2.7185612086574347</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0859CEDD-5CF3-DC4C-BF09-46ED8ABBCA16}">
-  <dimension ref="B2:I13"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScale="81" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="2" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="68" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="62" t="s">
-        <v>224</v>
-      </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="55">
-        <v>2024</v>
-      </c>
-      <c r="E4" s="55">
-        <v>2023</v>
-      </c>
-      <c r="F4" s="55">
-        <v>2022</v>
-      </c>
-      <c r="G4" s="55">
-        <v>2021</v>
-      </c>
-      <c r="H4" s="55">
-        <v>2020</v>
-      </c>
-      <c r="I4" s="55">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C5" s="79" t="s">
-        <v>231</v>
-      </c>
-      <c r="D5" s="32">
-        <f>'Income Yearly'!C27/'Income Yearly'!C5</f>
-        <v>4.9811381515388511E-2</v>
-      </c>
-      <c r="E5" s="32">
-        <f>'Income Yearly'!D27/'Income Yearly'!D5</f>
-        <v>4.4399235421021449E-2</v>
-      </c>
-      <c r="F5" s="32">
-        <f>'Income Yearly'!E27/'Income Yearly'!E5</f>
-        <v>4.1218232550122275E-2</v>
-      </c>
-      <c r="G5" s="32">
-        <f>'Income Yearly'!F27/'Income Yearly'!F5</f>
-        <v>6.3196936199002088E-2</v>
-      </c>
-      <c r="H5" s="32">
-        <f>'Income Yearly'!G27/'Income Yearly'!G5</f>
-        <v>1.8761397622000145E-2</v>
-      </c>
-      <c r="I5" s="32">
-        <f>'Income Yearly'!H27/'Income Yearly'!H5</f>
-        <v>7.8132912766049802E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C6" s="79" t="s">
-        <v>232</v>
-      </c>
-      <c r="D6" s="32">
-        <f>'Income Yearly'!C5/'Balance Sheet Yearly'!C18</f>
-        <v>0.99932189364074153</v>
-      </c>
-      <c r="E6" s="32">
-        <f>'Income Yearly'!D5/'Balance Sheet Yearly'!D18</f>
-        <v>1.0265999563935142</v>
-      </c>
-      <c r="F6" s="32">
-        <f>'Income Yearly'!E5/'Balance Sheet Yearly'!E18</f>
-        <v>1.0794125171523594</v>
-      </c>
-      <c r="G6" s="32">
-        <f>'Income Yearly'!F5/'Balance Sheet Yearly'!F18</f>
-        <v>0.99995167739831115</v>
-      </c>
-      <c r="H6" s="32">
-        <f>'Income Yearly'!G5/'Balance Sheet Yearly'!G18</f>
-        <v>0.93211580564885699</v>
-      </c>
-      <c r="I6" s="32">
-        <f>'Income Yearly'!H5/'Balance Sheet Yearly'!H18</f>
-        <v>1.2703895005790122</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="33" t="s">
-        <v>229</v>
-      </c>
-      <c r="C7" s="80" t="s">
-        <v>233</v>
-      </c>
-      <c r="D7" s="34">
-        <f>'Balance Sheet Yearly'!C18/'Balance Sheet Yearly'!C29</f>
-        <v>3.1544848089333621</v>
-      </c>
-      <c r="E7" s="34">
-        <f>'Balance Sheet Yearly'!D18/'Balance Sheet Yearly'!D29</f>
-        <v>3.3403480527445568</v>
-      </c>
-      <c r="F7" s="34">
-        <f>'Balance Sheet Yearly'!E18/'Balance Sheet Yearly'!E29</f>
-        <v>3.4481735434460083</v>
-      </c>
-      <c r="G7" s="34">
-        <f>'Balance Sheet Yearly'!F18/'Balance Sheet Yearly'!F29</f>
-        <v>3.4250662032439592</v>
-      </c>
-      <c r="H7" s="34">
-        <f>'Balance Sheet Yearly'!G18/'Balance Sheet Yearly'!G29</f>
-        <v>4.0195135282864172</v>
-      </c>
-      <c r="I7" s="34">
-        <f>'Balance Sheet Yearly'!H18/'Balance Sheet Yearly'!H29</f>
-        <v>3.0637495072365826</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="D8" s="32">
-        <f>D5*D6*D7</f>
-        <v>0.15702269596113405</v>
-      </c>
-      <c r="E8" s="32">
-        <f t="shared" ref="E8:I8" si="0">E5*E6*E7</f>
-        <v>0.15225390984360626</v>
-      </c>
-      <c r="F8" s="32">
-        <f t="shared" si="0"/>
-        <v>0.15341433096756082</v>
-      </c>
-      <c r="G8" s="32">
-        <f t="shared" si="0"/>
-        <v>0.21644323071830521</v>
-      </c>
-      <c r="H8" s="32">
-        <f t="shared" si="0"/>
-        <v>7.0292429625580757E-2</v>
-      </c>
-      <c r="I8" s="32">
-        <f t="shared" si="0"/>
-        <v>3.0410542321338063E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-    </row>
-    <row r="11" spans="2:9" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
-    </row>
-    <row r="12" spans="2:9" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="77"/>
-      <c r="C12" s="77"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="78"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="78"/>
-      <c r="I12" s="78"/>
-    </row>
-    <row r="13" spans="2:9" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="76"/>
-      <c r="G13" s="76"/>
-      <c r="H13" s="76"/>
-      <c r="I13" s="76"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>